--- a/data/TIDEs/Ace24hrs.xlsx
+++ b/data/TIDEs/Ace24hrs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvd5nq\Documents\Cardiotoxicity\data\TIDEs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E222FBC6-3456-4FA1-A352-4FBA917F84C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC46B5E-80BA-47AF-84E4-1EC2C0C3C6BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="7284" xr2:uid="{1E4866B7-8A2F-4686-99F6-2B5C29B6C745}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="7284" xr2:uid="{45CF6267-3A05-41D7-A4D2-C56203A6EEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1599,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C477B8B-6917-4E29-A960-FCD13D1A9CEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7878BB3C-893F-41B7-831B-6222401E2B81}">
   <dimension ref="A1:D308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1616,10 +1616,10 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.12536161646247307</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>-0.30299999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,10 +1630,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.14415309892513456</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1644,10 +1644,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.8292683989823823E-2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1658,10 +1658,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4.8782490455307144E-2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.36599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1672,10 +1672,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9.9424142696408466E-2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,10 +1686,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.14660193724732362</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>-0.23599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1700,10 +1700,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.1140418805679236</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1714,10 +1714,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.10397310092699981</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1728,10 +1728,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.13753549508241814</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1742,10 +1742,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>9.7135888407824375E-2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1756,10 +1756,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.10008671224242999</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,10 +1770,10 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.18989401663008204</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>-0.33600000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1784,10 +1784,10 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.19095889130462199</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>-0.29299999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1798,10 +1798,10 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.19095889130462199</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>-0.29299999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1812,10 +1812,10 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.17289439266207327</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>-0.33100000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1826,10 +1826,10 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>8.1015192095605079E-2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1840,10 +1840,10 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1230176611494196</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1854,10 +1854,10 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>7.7509540292152554E-2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1868,10 +1868,10 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.10493823037563661</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1882,10 +1882,10 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>8.6837569255814359E-2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1896,10 +1896,10 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.11619672505408202</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1910,10 +1910,10 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>8.4671235692252836E-2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1924,10 +1924,10 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.11947730760212182</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1938,10 +1938,10 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>8.5380440505370164E-2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>-0.47299999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1952,10 +1952,10 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-1.2743263026006924E-2</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>-0.25900000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1966,10 +1966,10 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.17234174088049711</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1980,10 +1980,10 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>8.3215435976351421E-2</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1994,10 +1994,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.13508959503156071</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>-0.29799999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2008,10 +2008,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>6.6723786255013795E-2</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>-0.29799999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2022,10 +2022,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>8.1585313707659202E-2</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2036,10 +2036,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>7.6678581291810891E-2</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2050,10 +2050,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.10762702996706831</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2064,10 +2064,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.12366147647990997</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2078,10 +2078,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.11502786859089521</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2092,10 +2092,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>8.9498324605052651E-2</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2106,10 +2106,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>9.2412456514696775E-2</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2120,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.14790129135371843</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2134,10 +2134,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.14775993263714349</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2148,10 +2148,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.1256038227327313</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2162,10 +2162,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>3.8463390405627587E-2</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2176,10 +2176,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.11160531079129492</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2190,10 +2190,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.11435439985971797</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2204,10 +2204,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>6.3198185772329218E-2</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.26900000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,10 +2218,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.12177194528207692</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2232,10 +2232,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>9.6844415370631806E-2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>-0.224</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2246,10 +2246,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.10812790384545141</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2260,10 +2260,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.15480892618620234</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2274,10 +2274,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.11124946641105714</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>-0.47899999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2288,10 +2288,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>6.1872567665416781E-2</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2302,10 +2302,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.20026583422893857</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2316,10 +2316,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>9.2143348498168839E-2</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2330,10 +2330,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.145976950362153</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2344,10 +2344,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>7.3638137609119303E-2</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2358,10 +2358,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.33182469999540587</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2372,10 +2372,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.33377921160872737</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2386,10 +2386,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.37106214262136178</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2400,10 +2400,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.33791645804970649</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2414,10 +2414,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.35890779852246435</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2428,10 +2428,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.42775970086809001</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2442,10 +2442,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.44206961190761029</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2456,10 +2456,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.43461202961905682</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2470,10 +2470,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>9.1475707519052887E-2</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2484,10 +2484,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>7.6243097437664498E-2</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2498,10 +2498,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>7.8113451662020925E-2</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2512,10 +2512,10 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>7.6079743509719203E-2</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2526,10 +2526,10 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>9.7137668635664587E-2</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2540,10 +2540,10 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.14154554590057863</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2554,10 +2554,10 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.10853968213640396</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2568,10 +2568,10 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.23135699991603947</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2582,10 +2582,10 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.20864222182344894</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2596,10 +2596,10 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.2282483613240151</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2610,10 +2610,10 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.22599230412147814</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2624,10 +2624,10 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.22599230412147814</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2638,10 +2638,10 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.22662834253241246</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2652,10 +2652,10 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.20605881554761224</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2666,10 +2666,10 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.24237822418198487</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2680,10 +2680,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.25031574786683441</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2694,10 +2694,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.25136388978126395</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2708,10 +2708,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.22453032068573017</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2722,10 +2722,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.2327369013551398</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2736,10 +2736,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.2327369013551398</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2750,10 +2750,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.2847619133549894</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2764,10 +2764,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.27835696545603306</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2778,10 +2778,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.27702733578830663</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2792,10 +2792,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.27002263509036112</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2806,10 +2806,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.27702733578830663</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2820,10 +2820,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.27835696545603306</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2834,10 +2834,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>0.2740024898129273</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2848,10 +2848,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>0.26106290352878958</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2862,10 +2862,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.30377153673220048</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2876,10 +2876,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.30122489190540508</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2890,10 +2890,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.30370413461533652</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2904,10 +2904,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.30277927201891952</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2918,10 +2918,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.29834239162298476</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2932,10 +2932,10 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.29310534032812952</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2946,10 +2946,10 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.28516119897187409</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2960,10 +2960,10 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.32771326133610623</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2974,10 +2974,10 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>0.32586419228175978</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2988,10 +2988,10 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.32498136889427082</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3002,10 +3002,10 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.31085903966454237</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3016,10 +3016,10 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.34615882947519594</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3030,10 +3030,10 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>0.34421083329324348</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3044,10 +3044,10 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>0.36470327005025654</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3058,10 +3058,10 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.36464429319800068</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3072,10 +3072,10 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.24906155905510188</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3086,10 +3086,10 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.25315886049298858</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3100,10 +3100,10 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.24605003803285602</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3114,10 +3114,10 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.28365161364348668</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3128,10 +3128,10 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.31537497549555915</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3142,10 +3142,10 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.29202488331233545</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3156,10 +3156,10 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.28179924231113757</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3170,10 +3170,10 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>0.22294079947908063</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3184,10 +3184,10 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>0.29867560100135054</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3198,10 +3198,10 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>0.29103628539565701</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3212,10 +3212,10 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>0.32041717834094602</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3226,10 +3226,10 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>0.24906155905510188</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3240,10 +3240,10 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.10117814030347957</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3254,10 +3254,10 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>9.8620340707135656E-2</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3268,10 +3268,10 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.13008097911391578</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3282,10 +3282,10 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.15800096346926518</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3296,10 +3296,10 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.15502982530873582</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3310,10 +3310,10 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>0.13008097911391578</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3324,10 +3324,10 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>7.4628896894232161E-2</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3338,10 +3338,10 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>0.10358229109150152</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3352,10 +3352,10 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>0.12823881728281952</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3366,10 +3366,10 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>2.5172089414815212E-2</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3380,10 +3380,10 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>-2.2435839595341166E-3</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3394,10 +3394,10 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>9.4448275648691432E-2</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3408,10 +3408,10 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>8.6074654277826693E-2</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3422,10 +3422,10 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1.6038605640742238E-2</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3436,10 +3436,10 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1.6038605640742217E-2</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3450,10 +3450,10 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>8.7351609799198628E-3</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3464,10 +3464,10 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>0.12772520807520263</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3478,10 +3478,10 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>-9.7511936925870572E-3</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3492,10 +3492,10 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>-9.7511936925870363E-3</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3506,10 +3506,10 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>8.0714793480690245E-2</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3520,10 +3520,10 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>7.2168273374433975E-2</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3534,10 +3534,10 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>7.2168273374433975E-2</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3548,10 +3548,10 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>9.1768849660052859E-2</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3562,10 +3562,10 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3576,10 +3576,10 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>-1.6219371341322827E-2</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0.29599999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3590,10 +3590,10 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>8.2171069457951398E-2</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3604,10 +3604,10 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>8.6074654277826693E-2</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3618,10 +3618,10 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>8.6074654277826693E-2</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3632,10 +3632,10 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>7.7957639462430436E-2</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3660,10 +3660,10 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>7.3447867669170483E-2</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3674,10 +3674,10 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>-2.2131146611672734E-2</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3688,10 +3688,10 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>5.8987980113725233E-2</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3702,10 +3702,10 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3716,10 +3716,10 @@
         <v>154</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>5.8763594752396023E-2</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3730,10 +3730,10 @@
         <v>155</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3744,10 +3744,10 @@
         <v>156</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>4.7484336686425641E-2</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3758,10 +3758,10 @@
         <v>157</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>7.4933551695210057E-2</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3772,10 +3772,10 @@
         <v>158</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>4.7335589621085042E-2</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>0.26200000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3786,10 +3786,10 @@
         <v>159</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>8.32226073371993E-2</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3800,10 +3800,10 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>3.8250407732371226E-2</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3814,10 +3814,10 @@
         <v>161</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>9.4129755938357818E-2</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3828,10 +3828,10 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>-2.060663536908636E-2</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3842,10 +3842,10 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>8.4663223768703277E-2</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3856,10 +3856,10 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>-2.679548855163447E-2</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3870,10 +3870,10 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>8.2171069457951398E-2</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3884,10 +3884,10 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3898,10 +3898,10 @@
         <v>167</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>5.8763594752396023E-2</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3912,10 +3912,10 @@
         <v>168</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3926,10 +3926,10 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3940,10 +3940,10 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>3.3892479405697763E-2</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3954,10 +3954,10 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>3.6307239134792127E-2</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3968,10 +3968,10 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3982,10 +3982,10 @@
         <v>173</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3996,10 +3996,10 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -4010,10 +4010,10 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -4024,10 +4024,10 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>6.2015467298698314E-2</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4038,10 +4038,10 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>0.16936197153413748</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -4052,10 +4052,10 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>0.17408853022926543</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4066,10 +4066,10 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>0.13631174601640847</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4080,10 +4080,10 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>0.12942785682431104</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -4094,10 +4094,10 @@
         <v>181</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>8.6074654277826693E-2</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -4108,10 +4108,10 @@
         <v>182</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>3.6307239134792113E-2</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -4122,10 +4122,10 @@
         <v>183</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>3.6593207344001309E-2</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -4136,10 +4136,10 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -4150,10 +4150,10 @@
         <v>185</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>9.5289213060264083E-2</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -4164,10 +4164,10 @@
         <v>186</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -4178,10 +4178,10 @@
         <v>187</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>6.2398208795274662E-2</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -4192,10 +4192,10 @@
         <v>188</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>0.34166980154783277</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -4206,10 +4206,10 @@
         <v>189</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>7.6950432515473635E-2</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -4220,10 +4220,10 @@
         <v>190</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>9.2692664641420411E-2</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -4234,10 +4234,10 @@
         <v>191</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>5.7818230204628195E-2</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>-0.33300000000000002</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -4248,10 +4248,10 @@
         <v>192</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>-4.4327423917335726E-2</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -4262,10 +4262,10 @@
         <v>193</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>5.1124894089799498E-2</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0.28299999999999997</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4276,10 +4276,10 @@
         <v>194</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>3.8910305823802588E-2</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4290,10 +4290,10 @@
         <v>195</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>-7.7502144048185659E-2</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4304,10 +4304,10 @@
         <v>196</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>5.6508147072644045E-2</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4318,10 +4318,10 @@
         <v>197</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>7.3937304461433734E-2</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4332,10 +4332,10 @@
         <v>198</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>1.6382806619092211E-2</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -4346,10 +4346,10 @@
         <v>199</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>7.8196269226357071E-2</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -4360,10 +4360,10 @@
         <v>200</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>0.28725320359615841</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -4374,10 +4374,10 @@
         <v>201</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>-5.8558469816360134E-2</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4388,10 +4388,10 @@
         <v>202</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>6.2297031541793564E-2</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>-0.39700000000000002</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4402,10 +4402,10 @@
         <v>203</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>2.4669782202616085E-2</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4416,10 +4416,10 @@
         <v>204</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>3.8220058246444547E-2</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4430,10 +4430,10 @@
         <v>205</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>7.4633995988438145E-2</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4444,10 +4444,10 @@
         <v>206</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>2.3757762312787211E-2</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0.40699999999999997</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4458,10 +4458,10 @@
         <v>207</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>5.8215963662050375E-2</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>-0.216</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -4472,10 +4472,10 @@
         <v>208</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>8.0419509151917187E-2</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -4486,10 +4486,10 @@
         <v>209</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>0.26310978104375909</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -4500,10 +4500,10 @@
         <v>210</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>9.1114883218999659E-2</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4514,10 +4514,10 @@
         <v>211</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>0.11963902587072031</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4528,10 +4528,10 @@
         <v>212</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>9.3392055623637851E-2</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4542,10 +4542,10 @@
         <v>213</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>0.14280784403314681</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4556,10 +4556,10 @@
         <v>214</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>0.14280784403314681</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4570,10 +4570,10 @@
         <v>215</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>0.13204246649610393</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4584,10 +4584,10 @@
         <v>217</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>0.15497360217130993</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4598,10 +4598,10 @@
         <v>219</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>2.2562552147502978E-2</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4612,10 +4612,10 @@
         <v>221</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>0.1380966678277637</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4626,10 +4626,10 @@
         <v>223</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>-0.15390983433096778</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4640,10 +4640,10 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>-1.1942450006567367E-2</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4654,10 +4654,10 @@
         <v>227</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>1.4089480845916422E-2</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0.36499999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4668,10 +4668,10 @@
         <v>229</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>-1.3456924854686709E-2</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>-0.34499999999999997</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4682,10 +4682,10 @@
         <v>231</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>0.14141188580153452</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4696,10 +4696,10 @@
         <v>233</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>-6.411154983008624E-2</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>-0.307</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4710,10 +4710,10 @@
         <v>235</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>8.8642888476593962E-2</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>-0.20499999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4724,10 +4724,10 @@
         <v>237</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>-0.55368255701662372</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4738,10 +4738,10 @@
         <v>239</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>-9.0025535665908749E-2</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>-0.29099999999999998</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4752,10 +4752,10 @@
         <v>241</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>9.7232940475905971E-2</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4766,10 +4766,10 @@
         <v>243</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>5.8892633345210235E-2</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4780,10 +4780,10 @@
         <v>245</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>0.17356919114810296</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4794,10 +4794,10 @@
         <v>247</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>0.20050811287991105</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>-0.35799999999999998</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4808,10 +4808,10 @@
         <v>249</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>0.3299768000041583</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4822,10 +4822,10 @@
         <v>251</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>9.5182941103222354E-2</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4836,10 +4836,10 @@
         <v>253</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>9.4275571661620886E-2</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4850,10 +4850,10 @@
         <v>255</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>0.12772520807520263</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4864,10 +4864,10 @@
         <v>257</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>0.37597439446846104</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4878,10 +4878,10 @@
         <v>259</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>6.8541395105908093E-2</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4892,10 +4892,10 @@
         <v>261</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>0.16749487225808779</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>-0.307</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4906,10 +4906,10 @@
         <v>263</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>0.10468688481043305</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4920,10 +4920,10 @@
         <v>265</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>0.12435682292727118</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4934,10 +4934,10 @@
         <v>267</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>0.1214943571582225</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4948,10 +4948,10 @@
         <v>269</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>2.9441713334697915E-3</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4962,10 +4962,10 @@
         <v>271</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>4.3186278673747511E-2</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4976,10 +4976,10 @@
         <v>273</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>-6.0009726291735356E-3</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4990,10 +4990,10 @@
         <v>275</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>6.7583173494632859E-2</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -5004,10 +5004,10 @@
         <v>277</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>5.0469527967682205E-2</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -5018,10 +5018,10 @@
         <v>279</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>0.12201753726654722</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -5032,10 +5032,10 @@
         <v>281</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>0.12869798807475721</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -5046,10 +5046,10 @@
         <v>283</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>9.3390902609629164E-2</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -5060,10 +5060,10 @@
         <v>285</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>9.8958065942108028E-2</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -5074,10 +5074,10 @@
         <v>287</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>6.3133276074961164E-2</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -5088,10 +5088,10 @@
         <v>289</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>5.5600140681200234E-2</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -5102,10 +5102,10 @@
         <v>291</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>1.6797333685716492E-2</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -5116,10 +5116,10 @@
         <v>293</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>9.6765300597257395E-2</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -5130,10 +5130,10 @@
         <v>295</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>-1.1861406919824421E-2</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0.32600000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -5144,10 +5144,10 @@
         <v>297</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>5.2202803844284176E-2</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -5158,10 +5158,10 @@
         <v>299</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>8.1829742355987722E-2</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -5172,10 +5172,10 @@
         <v>301</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>8.2561533143441682E-2</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -5186,10 +5186,10 @@
         <v>303</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>4.6410911541770308E-2</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -5200,10 +5200,10 @@
         <v>305</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>4.7692177091640198E-2</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -5214,10 +5214,10 @@
         <v>307</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>4.2953283828379436E-2</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5228,10 +5228,10 @@
         <v>309</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>4.2128779887159809E-2</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5242,10 +5242,10 @@
         <v>311</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>7.4871391891016603E-2</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5256,10 +5256,10 @@
         <v>313</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>6.5062562852285899E-2</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5270,10 +5270,10 @@
         <v>315</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>0.21927599420143809</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5284,10 +5284,10 @@
         <v>317</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>3.6419563919820527E-2</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5298,10 +5298,10 @@
         <v>319</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>0.18046715525886781</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5312,10 +5312,10 @@
         <v>321</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>2.2223259218911304E-2</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5326,10 +5326,10 @@
         <v>323</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>-4.7962897938903619E-2</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>-0.188</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5340,10 +5340,10 @@
         <v>325</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>0.30121711067395218</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5354,10 +5354,10 @@
         <v>327</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>-4.8653043498068052E-2</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5368,10 +5368,10 @@
         <v>329</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>7.7921580313497774E-2</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0.28299999999999997</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5382,10 +5382,10 @@
         <v>331</v>
       </c>
       <c r="C270">
-        <v>0</v>
+        <v>8.1041094467223865E-2</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5396,10 +5396,10 @@
         <v>333</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>2.9929966402375427E-2</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>-0.23699999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5410,10 +5410,10 @@
         <v>335</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>0.23981857674973006</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5424,10 +5424,10 @@
         <v>337</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>-0.13839540585426163</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5438,10 +5438,10 @@
         <v>339</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>-8.4905041546885912E-2</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>-0.28199999999999997</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5452,10 +5452,10 @@
         <v>341</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>-0.15473259616734847</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5466,10 +5466,10 @@
         <v>343</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>9.0528319254166937E-3</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>-0.30599999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5480,10 +5480,10 @@
         <v>345</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>0.16500829834565744</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5494,10 +5494,10 @@
         <v>347</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>6.3106446170921371E-2</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5508,10 +5508,10 @@
         <v>349</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>0.17528131998143739</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5522,10 +5522,10 @@
         <v>351</v>
       </c>
       <c r="C280">
-        <v>0</v>
+        <v>-6.9799161903690329E-2</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>-0.157</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5536,10 +5536,10 @@
         <v>353</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>0.17319963206371236</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5550,10 +5550,10 @@
         <v>355</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>-9.8297675058216429E-3</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>-0.45600000000000002</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5564,10 +5564,10 @@
         <v>357</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>0.31861526489520775</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5578,10 +5578,10 @@
         <v>359</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>-2.3119962336020126E-2</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>-0.218</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5592,10 +5592,10 @@
         <v>361</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>0.12406321116797339</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5606,10 +5606,10 @@
         <v>363</v>
       </c>
       <c r="C286">
-        <v>0</v>
+        <v>0.1950527453418244</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>-0.34200000000000003</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5620,10 +5620,10 @@
         <v>365</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>-7.2844596084910174E-2</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>-0.154</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5634,10 +5634,10 @@
         <v>367</v>
       </c>
       <c r="C288">
-        <v>0</v>
+        <v>0.31523939582029797</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,10 +5648,10 @@
         <v>369</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>-0.30100588183457233</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>-0.16300000000000001</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5662,10 +5662,10 @@
         <v>371</v>
       </c>
       <c r="C290">
-        <v>0</v>
+        <v>0.38729571042996236</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>-0.45800000000000002</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5676,10 +5676,10 @@
         <v>373</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>4.4037159597383614E-2</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>-0.36399999999999999</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5690,10 +5690,10 @@
         <v>375</v>
       </c>
       <c r="C292">
-        <v>0</v>
+        <v>0.60176512326122422</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5704,10 +5704,10 @@
         <v>377</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>0.28801708119296748</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5718,10 +5718,10 @@
         <v>379</v>
       </c>
       <c r="C294">
-        <v>0</v>
+        <v>0.1746322572070689</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5732,10 +5732,10 @@
         <v>381</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>-1.5276146551896908E-2</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>-0.372</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5746,10 +5746,10 @@
         <v>383</v>
       </c>
       <c r="C296">
-        <v>0</v>
+        <v>1.6644065537294327E-2</v>
       </c>
       <c r="D296">
-        <v>1</v>
+        <v>-0.21199999999999999</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,10 +5760,10 @@
         <v>385</v>
       </c>
       <c r="C297">
-        <v>0</v>
+        <v>0.25035706970771715</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5774,10 +5774,10 @@
         <v>387</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>3.4572087783166942E-2</v>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>-0.11700000000000001</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5788,10 +5788,10 @@
         <v>389</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>9.5276543306973605E-2</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>-0.10199999999999999</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5802,10 +5802,10 @@
         <v>391</v>
       </c>
       <c r="C300">
-        <v>0</v>
+        <v>3.2754053315193918E-2</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>-0.438</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5816,10 +5816,10 @@
         <v>393</v>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>0.10791644645714622</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>-0.26500000000000001</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5830,10 +5830,10 @@
         <v>395</v>
       </c>
       <c r="C302">
-        <v>0</v>
+        <v>1.6960927594797847E-2</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>-0.20200000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5844,10 +5844,10 @@
         <v>397</v>
       </c>
       <c r="C303">
-        <v>0</v>
+        <v>-6.1297445728878486E-3</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>0.36599999999999999</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5858,10 +5858,10 @@
         <v>399</v>
       </c>
       <c r="C304">
-        <v>0</v>
+        <v>8.7771341744705841E-2</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>-0.16700000000000001</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,10 +5872,10 @@
         <v>401</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>6.2260824085667528E-2</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>-0.372</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5886,10 +5886,10 @@
         <v>403</v>
       </c>
       <c r="C306">
-        <v>0</v>
+        <v>5.5734206465373984E-2</v>
       </c>
       <c r="D306">
-        <v>1</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5900,10 +5900,10 @@
         <v>405</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>-1.6112655336167701E-2</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>-0.46400000000000002</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5914,10 +5914,10 @@
         <v>407</v>
       </c>
       <c r="C308">
-        <v>0</v>
+        <v>0.13835781991743934</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>0.23599999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/TIDEs/Ace24hrs.xlsx
+++ b/data/TIDEs/Ace24hrs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvd5nq\Documents\Cardiotoxicity\data\TIDEs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC46B5E-80BA-47AF-84E4-1EC2C0C3C6BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C20B7A0-A587-42FD-857F-60B159C75EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="7284" xr2:uid="{45CF6267-3A05-41D7-A4D2-C56203A6EEB4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="7290" xr2:uid="{45CF6267-3A05-41D7-A4D2-C56203A6EEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1606,9 +1606,9 @@
       <selection sqref="A1:D308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>0.12536161646247307</v>
+        <v>-5.0735432412348812E-2</v>
       </c>
       <c r="D1">
-        <v>-0.30299999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1630,13 +1630,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.14415309892513456</v>
+        <v>4.4151437231373075E-2</v>
       </c>
       <c r="D2">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1644,13 +1644,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4.8292683989823823E-2</v>
+        <v>-6.6257304554249871E-2</v>
       </c>
       <c r="D3">
-        <v>0.17399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1658,13 +1658,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.8782490455307144E-2</v>
+        <v>-2.553174541194515E-2</v>
       </c>
       <c r="D4">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>262</v>
       </c>
@@ -1672,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>9.9424142696408466E-2</v>
+        <v>-5.6251944287816054E-2</v>
       </c>
       <c r="D5">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>310</v>
       </c>
@@ -1686,13 +1686,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.14660193724732362</v>
+        <v>1.3643073202583665E-2</v>
       </c>
       <c r="D6">
-        <v>-0.23599999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1700,13 +1700,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.1140418805679236</v>
+        <v>-2.1035596697382884E-2</v>
       </c>
       <c r="D7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1714,13 +1714,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.10397310092699981</v>
+        <v>3.4722379208719449E-2</v>
       </c>
       <c r="D8">
-        <v>0.191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1728,13 +1728,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.13753549508241814</v>
+        <v>2.3230873360616165E-2</v>
       </c>
       <c r="D9">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1742,13 +1742,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>9.7135888407824375E-2</v>
+        <v>-2.0434579648886231E-2</v>
       </c>
       <c r="D10">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1756,13 +1756,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.10008671224242999</v>
+        <v>-9.9734727998932252E-3</v>
       </c>
       <c r="D11">
-        <v>0.14799999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1770,13 +1770,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.18989401663008204</v>
+        <v>-1.7011636586076923E-2</v>
       </c>
       <c r="D12">
-        <v>-0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1784,13 +1784,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.19095889130462199</v>
+        <v>1.461757843133964E-2</v>
       </c>
       <c r="D13">
-        <v>-0.29299999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1798,13 +1798,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.19095889130462199</v>
+        <v>1.461757843133964E-2</v>
       </c>
       <c r="D14">
-        <v>-0.29299999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1812,13 +1812,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.17289439266207327</v>
+        <v>-1.7011636586076923E-2</v>
       </c>
       <c r="D15">
-        <v>-0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1826,13 +1826,13 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>8.1015192095605079E-2</v>
+        <v>1.1618071714784687E-2</v>
       </c>
       <c r="D16">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -1840,13 +1840,13 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.1230176611494196</v>
+        <v>4.3791876697343787E-3</v>
       </c>
       <c r="D17">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1854,13 +1854,13 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>7.7509540292152554E-2</v>
+        <v>1.0594797064953117E-2</v>
       </c>
       <c r="D18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1868,13 +1868,13 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.10493823037563661</v>
+        <v>-1.6741548540843726E-2</v>
       </c>
       <c r="D19">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1882,13 +1882,13 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>8.6837569255814359E-2</v>
+        <v>1.7843258528845534E-2</v>
       </c>
       <c r="D20">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1896,13 +1896,13 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>0.11619672505408202</v>
+        <v>-1.4110869771212738E-2</v>
       </c>
       <c r="D21">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1910,13 +1910,13 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>8.4671235692252836E-2</v>
+        <v>7.2221415939454697E-3</v>
       </c>
       <c r="D22">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1924,13 +1924,13 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0.11947730760212182</v>
+        <v>2.6083537328096242E-2</v>
       </c>
       <c r="D23">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1938,13 +1938,13 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>8.5380440505370164E-2</v>
+        <v>-5.8656572066000785E-2</v>
       </c>
       <c r="D24">
-        <v>-0.47299999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1952,13 +1952,13 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>-1.2743263026006924E-2</v>
+        <v>-0.22279276977217638</v>
       </c>
       <c r="D25">
-        <v>-0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1966,13 +1966,13 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0.17234174088049711</v>
+        <v>7.5010045670201517E-2</v>
       </c>
       <c r="D26">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -1980,13 +1980,13 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>8.3215435976351421E-2</v>
+        <v>-3.932717870888789E-2</v>
       </c>
       <c r="D27">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1994,13 +1994,13 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>0.13508959503156071</v>
+        <v>-9.3684479181264019E-2</v>
       </c>
       <c r="D28">
-        <v>-0.29799999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2008,13 +2008,13 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>6.6723786255013795E-2</v>
+        <v>-0.15496788846943968</v>
       </c>
       <c r="D29">
-        <v>-0.29799999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2022,13 +2022,13 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>8.1585313707659202E-2</v>
+        <v>2.3123362950790627E-3</v>
       </c>
       <c r="D30">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2036,13 +2036,13 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>7.6678581291810891E-2</v>
+        <v>7.1519147678991224E-3</v>
       </c>
       <c r="D31">
-        <v>0.25700000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>33</v>
       </c>
@@ -2050,13 +2050,13 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>0.10762702996706831</v>
+        <v>-1.3388984637404799E-2</v>
       </c>
       <c r="D32">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2064,13 +2064,13 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0.12366147647990997</v>
+        <v>4.2608641810320822E-3</v>
       </c>
       <c r="D33">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2078,13 +2078,13 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0.11502786859089521</v>
+        <v>3.7948480740667536E-3</v>
       </c>
       <c r="D34">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2092,13 +2092,13 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>8.9498324605052651E-2</v>
+        <v>1.2268049488094571E-2</v>
       </c>
       <c r="D35">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>37</v>
       </c>
@@ -2106,13 +2106,13 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>9.2412456514696775E-2</v>
+        <v>1.0172287889978147E-2</v>
       </c>
       <c r="D36">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2120,13 +2120,13 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0.14790129135371843</v>
+        <v>2.2081527398564907E-2</v>
       </c>
       <c r="D37">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2134,13 +2134,13 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>0.14775993263714349</v>
+        <v>2.5578767317375829E-2</v>
       </c>
       <c r="D38">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>40</v>
       </c>
@@ -2148,13 +2148,13 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>0.1256038227327313</v>
+        <v>1.2905485797952468E-2</v>
       </c>
       <c r="D39">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2162,13 +2162,13 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.8463390405627587E-2</v>
+        <v>-7.0064144053639102E-2</v>
       </c>
       <c r="D40">
-        <v>0.38800000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>42</v>
       </c>
@@ -2176,13 +2176,13 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>0.11160531079129492</v>
+        <v>-5.9173016720035646E-3</v>
       </c>
       <c r="D41">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>44</v>
       </c>
@@ -2190,13 +2190,13 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>0.11435439985971797</v>
+        <v>-2.0673212661873417E-2</v>
       </c>
       <c r="D42">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>45</v>
       </c>
@@ -2204,13 +2204,13 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>6.3198185772329218E-2</v>
+        <v>-3.0897312959983773E-2</v>
       </c>
       <c r="D43">
-        <v>0.26900000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>46</v>
       </c>
@@ -2218,13 +2218,13 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>0.12177194528207692</v>
+        <v>2.5398461100600934E-2</v>
       </c>
       <c r="D44">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>47</v>
       </c>
@@ -2232,13 +2232,13 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>9.6844415370631806E-2</v>
+        <v>-3.9801074247220465E-2</v>
       </c>
       <c r="D45">
-        <v>-0.224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>48</v>
       </c>
@@ -2246,13 +2246,13 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>0.10812790384545141</v>
+        <v>-2.6911788810555594E-2</v>
       </c>
       <c r="D46">
-        <v>0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>49</v>
       </c>
@@ -2260,13 +2260,13 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0.15480892618620234</v>
+        <v>2.0861804743740903E-2</v>
       </c>
       <c r="D47">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2274,13 +2274,13 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>0.11124946641105714</v>
+        <v>-4.2807748129721622E-2</v>
       </c>
       <c r="D48">
-        <v>-0.47899999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>70</v>
       </c>
@@ -2288,13 +2288,13 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>6.1872567665416781E-2</v>
+        <v>-6.9145200902071702E-3</v>
       </c>
       <c r="D49">
-        <v>0.44400000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>73</v>
       </c>
@@ -2302,13 +2302,13 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>0.20026583422893857</v>
+        <v>-5.4442356408379945E-2</v>
       </c>
       <c r="D50">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>75</v>
       </c>
@@ -2316,13 +2316,13 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>9.2143348498168839E-2</v>
+        <v>-7.8558878827807033E-3</v>
       </c>
       <c r="D51">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>76</v>
       </c>
@@ -2330,13 +2330,13 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>0.145976950362153</v>
+        <v>6.9641841008716314E-3</v>
       </c>
       <c r="D52">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>103</v>
       </c>
@@ -2344,13 +2344,13 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>7.3638137609119303E-2</v>
+        <v>-3.0776399297772268E-2</v>
       </c>
       <c r="D53">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>104</v>
       </c>
@@ -2358,13 +2358,13 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0.33182469999540587</v>
+        <v>0.34325438130379232</v>
       </c>
       <c r="D54">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>105</v>
       </c>
@@ -2372,13 +2372,13 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0.33377921160872737</v>
+        <v>0.34503530490443557</v>
       </c>
       <c r="D55">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>106</v>
       </c>
@@ -2386,13 +2386,13 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>0.37106214262136178</v>
+        <v>0.3793074970916015</v>
       </c>
       <c r="D56">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>107</v>
       </c>
@@ -2400,13 +2400,13 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>0.33791645804970649</v>
+        <v>0.34763037136672481</v>
       </c>
       <c r="D57">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>108</v>
       </c>
@@ -2414,13 +2414,13 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>0.35890779852246435</v>
+        <v>0.36954919017508492</v>
       </c>
       <c r="D58">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>109</v>
       </c>
@@ -2428,13 +2428,13 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0.42775970086809001</v>
+        <v>0.43253246024469488</v>
       </c>
       <c r="D59">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>110</v>
       </c>
@@ -2442,13 +2442,13 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>0.44206961190761029</v>
+        <v>0.44073281372800005</v>
       </c>
       <c r="D60">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>111</v>
       </c>
@@ -2456,13 +2456,13 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>0.43461202961905682</v>
+        <v>0.43361772412827987</v>
       </c>
       <c r="D61">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>112</v>
       </c>
@@ -2470,13 +2470,13 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>9.1475707519052887E-2</v>
+        <v>1.557303109853792E-2</v>
       </c>
       <c r="D62">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>113</v>
       </c>
@@ -2484,13 +2484,13 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>7.6243097437664498E-2</v>
+        <v>-2.7164693539414786E-3</v>
       </c>
       <c r="D63">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>114</v>
       </c>
@@ -2498,13 +2498,13 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>7.8113451662020925E-2</v>
+        <v>-2.7757537978872424E-4</v>
       </c>
       <c r="D64">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>115</v>
       </c>
@@ -2512,13 +2512,13 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>7.6079743509719203E-2</v>
+        <v>9.0932038341631303E-3</v>
       </c>
       <c r="D65">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>116</v>
       </c>
@@ -2526,13 +2526,13 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>9.7137668635664587E-2</v>
+        <v>4.62777773640752E-2</v>
       </c>
       <c r="D66">
-        <v>0.38300000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>117</v>
       </c>
@@ -2540,13 +2540,13 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0.14154554590057863</v>
+        <v>6.866196338639885E-2</v>
       </c>
       <c r="D67">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>121</v>
       </c>
@@ -2554,13 +2554,13 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>0.10853968213640396</v>
+        <v>2.8418137877545321E-3</v>
       </c>
       <c r="D68">
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>122</v>
       </c>
@@ -2568,13 +2568,13 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>0.23135699991603947</v>
+        <v>0.11875446229665028</v>
       </c>
       <c r="D69">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>123</v>
       </c>
@@ -2582,13 +2582,13 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>0.20864222182344894</v>
+        <v>9.3825553608700735E-2</v>
       </c>
       <c r="D70">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>124</v>
       </c>
@@ -2596,13 +2596,13 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>0.2282483613240151</v>
+        <v>0.14854162323569078</v>
       </c>
       <c r="D71">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>125</v>
       </c>
@@ -2610,13 +2610,13 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.22599230412147814</v>
+        <v>0.14516567725306145</v>
       </c>
       <c r="D72">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>126</v>
       </c>
@@ -2624,13 +2624,13 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0.22599230412147814</v>
+        <v>0.14516567725306145</v>
       </c>
       <c r="D73">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>127</v>
       </c>
@@ -2638,13 +2638,13 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>0.22662834253241246</v>
+        <v>0.14683424825597022</v>
       </c>
       <c r="D74">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>128</v>
       </c>
@@ -2652,13 +2652,13 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0.20605881554761224</v>
+        <v>0.10700236829993076</v>
       </c>
       <c r="D75">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>129</v>
       </c>
@@ -2666,13 +2666,13 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>0.24237822418198487</v>
+        <v>0.14116441461941057</v>
       </c>
       <c r="D76">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>130</v>
       </c>
@@ -2680,13 +2680,13 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>0.25031574786683441</v>
+        <v>0.15191147989170342</v>
       </c>
       <c r="D77">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>131</v>
       </c>
@@ -2694,13 +2694,13 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>0.25136388978126395</v>
+        <v>0.15391031515343637</v>
       </c>
       <c r="D78">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>132</v>
       </c>
@@ -2708,13 +2708,13 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>0.22453032068573017</v>
+        <v>0.12036847357399828</v>
       </c>
       <c r="D79">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>133</v>
       </c>
@@ -2722,13 +2722,13 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>0.2327369013551398</v>
+        <v>0.13135503961230435</v>
       </c>
       <c r="D80">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>134</v>
       </c>
@@ -2736,13 +2736,13 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>0.2327369013551398</v>
+        <v>0.13135503961230435</v>
       </c>
       <c r="D81">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>135</v>
       </c>
@@ -2750,13 +2750,13 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0.2847619133549894</v>
+        <v>0.19993986542517952</v>
       </c>
       <c r="D82">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>136</v>
       </c>
@@ -2764,13 +2764,13 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>0.27835696545603306</v>
+        <v>0.19109612809086346</v>
       </c>
       <c r="D83">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>137</v>
       </c>
@@ -2778,13 +2778,13 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>0.27702733578830663</v>
+        <v>0.18873691663295156</v>
       </c>
       <c r="D84">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>138</v>
       </c>
@@ -2792,13 +2792,13 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0.27002263509036112</v>
+        <v>0.15898880982424171</v>
       </c>
       <c r="D85">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>139</v>
       </c>
@@ -2806,13 +2806,13 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>0.27702733578830663</v>
+        <v>0.18873691663295156</v>
       </c>
       <c r="D86">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>140</v>
       </c>
@@ -2820,13 +2820,13 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0.27835696545603306</v>
+        <v>0.19109612809086346</v>
       </c>
       <c r="D87">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>141</v>
       </c>
@@ -2834,13 +2834,13 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>0.2740024898129273</v>
+        <v>0.18873691663295156</v>
       </c>
       <c r="D88">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>142</v>
       </c>
@@ -2848,13 +2848,13 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>0.26106290352878958</v>
+        <v>0.16940791076434006</v>
       </c>
       <c r="D89">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>143</v>
       </c>
@@ -2862,13 +2862,13 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>0.30377153673220048</v>
+        <v>0.22474043503424979</v>
       </c>
       <c r="D90">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>144</v>
       </c>
@@ -2876,13 +2876,13 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>0.30122489190540508</v>
+        <v>0.22209642991619979</v>
       </c>
       <c r="D91">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>145</v>
       </c>
@@ -2890,13 +2890,13 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>0.30370413461533652</v>
+        <v>0.22474043503424979</v>
       </c>
       <c r="D92">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>146</v>
       </c>
@@ -2904,13 +2904,13 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0.30277927201891952</v>
+        <v>0.22474043503424979</v>
       </c>
       <c r="D93">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>147</v>
       </c>
@@ -2918,13 +2918,13 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>0.29834239162298476</v>
+        <v>0.22209642991619979</v>
       </c>
       <c r="D94">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>148</v>
       </c>
@@ -2932,13 +2932,13 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>0.29310534032812952</v>
+        <v>0.21951391328926723</v>
       </c>
       <c r="D95">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>149</v>
       </c>
@@ -2946,13 +2946,13 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>0.28516119897187409</v>
+        <v>0.20250875908877816</v>
       </c>
       <c r="D96">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>150</v>
       </c>
@@ -2960,13 +2960,13 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>0.32771326133610623</v>
+        <v>0.25826095216649303</v>
       </c>
       <c r="D97">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>151</v>
       </c>
@@ -2974,13 +2974,13 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>0.32586419228175978</v>
+        <v>0.25532616861914653</v>
       </c>
       <c r="D98">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>152</v>
       </c>
@@ -2988,13 +2988,13 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>0.32498136889427082</v>
+        <v>0.25532616861914653</v>
       </c>
       <c r="D99">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>153</v>
       </c>
@@ -3002,13 +3002,13 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>0.31085903966454237</v>
+        <v>0.23273127277630856</v>
       </c>
       <c r="D100">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>154</v>
       </c>
@@ -3016,13 +3016,13 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>0.34615882947519594</v>
+        <v>0.28325227319666096</v>
       </c>
       <c r="D101">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>155</v>
       </c>
@@ -3030,13 +3030,13 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>0.34421083329324348</v>
+        <v>0.28020654982895493</v>
       </c>
       <c r="D102">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>156</v>
       </c>
@@ -3044,13 +3044,13 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>0.36470327005025654</v>
+        <v>0.30885120239271585</v>
       </c>
       <c r="D103">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>157</v>
       </c>
@@ -3058,13 +3058,13 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>0.36464429319800068</v>
+        <v>0.30885120239271585</v>
       </c>
       <c r="D104">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>159</v>
       </c>
@@ -3072,13 +3072,13 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>0.24906155905510188</v>
+        <v>3.7412678687138989E-2</v>
       </c>
       <c r="D105">
-        <v>0.35299999999999998</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>160</v>
       </c>
@@ -3086,13 +3086,13 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>0.25315886049298858</v>
+        <v>9.3947724612667954E-2</v>
       </c>
       <c r="D106">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>161</v>
       </c>
@@ -3100,13 +3100,13 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>0.24605003803285602</v>
+        <v>9.2299518917708864E-2</v>
       </c>
       <c r="D107">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>162</v>
       </c>
@@ -3114,13 +3114,13 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>0.28365161364348668</v>
+        <v>0.14752631456528861</v>
       </c>
       <c r="D108">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>163</v>
       </c>
@@ -3128,13 +3128,13 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>0.31537497549555915</v>
+        <v>0.19440758077383175</v>
       </c>
       <c r="D109">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>164</v>
       </c>
@@ -3142,13 +3142,13 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>0.29202488331233545</v>
+        <v>0.17498800862122824</v>
       </c>
       <c r="D110">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>165</v>
       </c>
@@ -3156,13 +3156,13 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>0.28179924231113757</v>
+        <v>0.14510785039208718</v>
       </c>
       <c r="D111">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>166</v>
       </c>
@@ -3170,13 +3170,13 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>0.22294079947908063</v>
+        <v>7.133751633877318E-2</v>
       </c>
       <c r="D112">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>167</v>
       </c>
@@ -3184,13 +3184,13 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>0.29867560100135054</v>
+        <v>0.15261342886064339</v>
       </c>
       <c r="D113">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>168</v>
       </c>
@@ -3198,13 +3198,13 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>0.29103628539565701</v>
+        <v>0.15002676057486977</v>
       </c>
       <c r="D114">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>169</v>
       </c>
@@ -3212,13 +3212,13 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>0.32041717834094602</v>
+        <v>0.19440758077383175</v>
       </c>
       <c r="D115">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>171</v>
       </c>
@@ -3226,13 +3226,13 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>0.24906155905510188</v>
+        <v>3.7412678687138989E-2</v>
       </c>
       <c r="D116">
-        <v>0.35299999999999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>172</v>
       </c>
@@ -3240,13 +3240,13 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>0.10117814030347957</v>
+        <v>1.8141651273763219E-2</v>
       </c>
       <c r="D117">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>173</v>
       </c>
@@ -3254,13 +3254,13 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>9.8620340707135656E-2</v>
+        <v>1.7958402270997934E-2</v>
       </c>
       <c r="D118">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>174</v>
       </c>
@@ -3268,13 +3268,13 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>0.13008097911391578</v>
+        <v>5.2631256082712852E-2</v>
       </c>
       <c r="D119">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>175</v>
       </c>
@@ -3282,13 +3282,13 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>0.15800096346926518</v>
+        <v>8.9306165446837074E-2</v>
       </c>
       <c r="D120">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>176</v>
       </c>
@@ -3296,13 +3296,13 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>0.15502982530873582</v>
+        <v>8.451787184947758E-2</v>
       </c>
       <c r="D121">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>177</v>
       </c>
@@ -3310,13 +3310,13 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>0.13008097911391578</v>
+        <v>5.2631256082712852E-2</v>
       </c>
       <c r="D122">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>178</v>
       </c>
@@ -3324,13 +3324,13 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>7.4628896894232161E-2</v>
+        <v>-1.620862385474835E-2</v>
       </c>
       <c r="D123">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>179</v>
       </c>
@@ -3338,13 +3338,13 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>0.10358229109150152</v>
+        <v>2.0714010398048672E-2</v>
       </c>
       <c r="D124">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>180</v>
       </c>
@@ -3352,13 +3352,13 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>0.12823881728281952</v>
+        <v>5.2631256082712852E-2</v>
       </c>
       <c r="D125">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>181</v>
       </c>
@@ -3366,13 +3366,13 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>2.5172089414815212E-2</v>
+        <v>3.5411085547355295E-2</v>
       </c>
       <c r="D126">
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>182</v>
       </c>
@@ -3380,13 +3380,13 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>-2.2435839595341166E-3</v>
+        <v>1.2195687274598598E-2</v>
       </c>
       <c r="D127">
-        <v>0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>183</v>
       </c>
@@ -3394,13 +3394,13 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>9.4448275648691432E-2</v>
+        <v>2.9552537772210893E-2</v>
       </c>
       <c r="D128">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>184</v>
       </c>
@@ -3408,13 +3408,13 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>8.6074654277826693E-2</v>
+        <v>4.603441121156189E-2</v>
       </c>
       <c r="D129">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>185</v>
       </c>
@@ -3422,13 +3422,13 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>1.6038605640742238E-2</v>
+        <v>3.3277887622815826E-2</v>
       </c>
       <c r="D130">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>186</v>
       </c>
@@ -3436,13 +3436,13 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>1.6038605640742217E-2</v>
+        <v>3.3277887622815826E-2</v>
       </c>
       <c r="D131">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>187</v>
       </c>
@@ -3450,13 +3450,13 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>8.7351609799198628E-3</v>
+        <v>3.2117031077833876E-2</v>
       </c>
       <c r="D132">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>188</v>
       </c>
@@ -3464,13 +3464,13 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>0.12772520807520263</v>
+        <v>3.9742332187878884E-2</v>
       </c>
       <c r="D133">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>189</v>
       </c>
@@ -3478,13 +3478,13 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>-9.7511936925870572E-3</v>
+        <v>1.1478293905504562E-2</v>
       </c>
       <c r="D134">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>190</v>
       </c>
@@ -3492,13 +3492,13 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>-9.7511936925870363E-3</v>
+        <v>1.1478293905504564E-2</v>
       </c>
       <c r="D135">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>191</v>
       </c>
@@ -3506,13 +3506,13 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>8.0714793480690245E-2</v>
+        <v>2.8629020966829302E-2</v>
       </c>
       <c r="D136">
-        <v>0.114</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>192</v>
       </c>
@@ -3520,13 +3520,13 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>7.2168273374433975E-2</v>
+        <v>4.4549430204737311E-2</v>
       </c>
       <c r="D137">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>193</v>
       </c>
@@ -3534,13 +3534,13 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>7.2168273374433975E-2</v>
+        <v>4.4549430204737311E-2</v>
       </c>
       <c r="D138">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>194</v>
       </c>
@@ -3548,13 +3548,13 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>9.1768849660052859E-2</v>
+        <v>2.9083449871064686E-2</v>
       </c>
       <c r="D139">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>195</v>
       </c>
@@ -3562,13 +3562,13 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620136002E-2</v>
       </c>
       <c r="D140">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>196</v>
       </c>
@@ -3576,13 +3576,13 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>-1.6219371341322827E-2</v>
+        <v>1.0962415527729079E-2</v>
       </c>
       <c r="D141">
-        <v>0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>197</v>
       </c>
@@ -3590,13 +3590,13 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>8.2171069457951398E-2</v>
+        <v>4.5279748732683825E-2</v>
       </c>
       <c r="D142">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>198</v>
       </c>
@@ -3604,13 +3604,13 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>8.6074654277826693E-2</v>
+        <v>4.603441121156189E-2</v>
       </c>
       <c r="D143">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>199</v>
       </c>
@@ -3618,13 +3618,13 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>8.6074654277826693E-2</v>
+        <v>4.603441121156189E-2</v>
       </c>
       <c r="D144">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>200</v>
       </c>
@@ -3632,13 +3632,13 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620136002E-2</v>
       </c>
       <c r="D145">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>201</v>
       </c>
@@ -3646,13 +3646,13 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>7.7957639462430436E-2</v>
+        <v>3.9319634979531337E-2</v>
       </c>
       <c r="D146">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>202</v>
       </c>
@@ -3660,13 +3660,13 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>7.3447867669170483E-2</v>
+        <v>2.1837734033950434E-2</v>
       </c>
       <c r="D147">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>203</v>
       </c>
@@ -3674,13 +3674,13 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>-2.2131146611672734E-2</v>
+        <v>1.0490913784600946E-2</v>
       </c>
       <c r="D148">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>204</v>
       </c>
@@ -3688,13 +3688,13 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>5.8987980113725233E-2</v>
+        <v>2.9754356935885969E-2</v>
       </c>
       <c r="D149">
-        <v>0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>205</v>
       </c>
@@ -3702,13 +3702,13 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620136002E-2</v>
       </c>
       <c r="D150">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>206</v>
       </c>
@@ -3716,13 +3716,13 @@
         <v>154</v>
       </c>
       <c r="C151">
-        <v>5.8763594752396023E-2</v>
+        <v>1.6536525118099797E-2</v>
       </c>
       <c r="D151">
-        <v>0.23200000000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>207</v>
       </c>
@@ -3730,13 +3730,13 @@
         <v>155</v>
       </c>
       <c r="C152">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620135995E-2</v>
       </c>
       <c r="D152">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>208</v>
       </c>
@@ -3744,13 +3744,13 @@
         <v>156</v>
       </c>
       <c r="C153">
-        <v>4.7484336686425641E-2</v>
+        <v>1.4779517075782815E-2</v>
       </c>
       <c r="D153">
-        <v>0.27900000000000003</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>209</v>
       </c>
@@ -3758,13 +3758,13 @@
         <v>157</v>
       </c>
       <c r="C154">
-        <v>7.4933551695210057E-2</v>
+        <v>3.7787701149159983E-2</v>
       </c>
       <c r="D154">
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>210</v>
       </c>
@@ -3772,13 +3772,13 @@
         <v>158</v>
       </c>
       <c r="C155">
-        <v>4.7335589621085042E-2</v>
+        <v>2.812398121337167E-2</v>
       </c>
       <c r="D155">
-        <v>0.26200000000000001</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>211</v>
       </c>
@@ -3786,13 +3786,13 @@
         <v>159</v>
       </c>
       <c r="C156">
-        <v>8.32226073371993E-2</v>
+        <v>4.6814655469384972E-2</v>
       </c>
       <c r="D156">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>212</v>
       </c>
@@ -3800,13 +3800,13 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>3.8250407732371226E-2</v>
+        <v>-1.342408589205835E-2</v>
       </c>
       <c r="D157">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>213</v>
       </c>
@@ -3814,13 +3814,13 @@
         <v>161</v>
       </c>
       <c r="C158">
-        <v>9.4129755938357818E-2</v>
+        <v>4.0783587464141291E-2</v>
       </c>
       <c r="D158">
-        <v>0.151</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>214</v>
       </c>
@@ -3828,13 +3828,13 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>-2.060663536908636E-2</v>
+        <v>-3.7083119948895092E-2</v>
       </c>
       <c r="D159">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>215</v>
       </c>
@@ -3842,13 +3842,13 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>8.4663223768703277E-2</v>
+        <v>3.3938720102555289E-2</v>
       </c>
       <c r="D160">
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>216</v>
       </c>
@@ -3856,13 +3856,13 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>-2.679548855163447E-2</v>
+        <v>-4.2052030535405224E-2</v>
       </c>
       <c r="D161">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>217</v>
       </c>
@@ -3870,13 +3870,13 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>8.2171069457951398E-2</v>
+        <v>4.5279748732683825E-2</v>
       </c>
       <c r="D162">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>218</v>
       </c>
@@ -3884,13 +3884,13 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620135995E-2</v>
       </c>
       <c r="D163">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>219</v>
       </c>
@@ -3898,13 +3898,13 @@
         <v>167</v>
       </c>
       <c r="C164">
-        <v>5.8763594752396023E-2</v>
+        <v>1.6536525118099794E-2</v>
       </c>
       <c r="D164">
-        <v>0.23200000000000001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>220</v>
       </c>
@@ -3912,13 +3912,13 @@
         <v>168</v>
       </c>
       <c r="C165">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620135995E-2</v>
       </c>
       <c r="D165">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>221</v>
       </c>
@@ -3926,13 +3926,13 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620135995E-2</v>
       </c>
       <c r="D166">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>222</v>
       </c>
@@ -3940,13 +3940,13 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>3.3892479405697763E-2</v>
+        <v>1.4488296793537048E-3</v>
       </c>
       <c r="D167">
-        <v>0.38600000000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>223</v>
       </c>
@@ -3954,13 +3954,13 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>3.6307239134792127E-2</v>
+        <v>1.4676456492154412E-3</v>
       </c>
       <c r="D168">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>224</v>
       </c>
@@ -3968,13 +3968,13 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620135995E-2</v>
       </c>
       <c r="D169">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>225</v>
       </c>
@@ -3982,13 +3982,13 @@
         <v>173</v>
       </c>
       <c r="C170">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620136002E-2</v>
       </c>
       <c r="D170">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>226</v>
       </c>
@@ -3996,13 +3996,13 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620136002E-2</v>
       </c>
       <c r="D171">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>227</v>
       </c>
@@ -4010,13 +4010,13 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620136002E-2</v>
       </c>
       <c r="D172">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>228</v>
       </c>
@@ -4024,13 +4024,13 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>6.2015467298698314E-2</v>
+        <v>2.4643420243862842E-2</v>
       </c>
       <c r="D173">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>229</v>
       </c>
@@ -4038,13 +4038,13 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>0.16936197153413748</v>
+        <v>8.7248980866748593E-2</v>
       </c>
       <c r="D174">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>230</v>
       </c>
@@ -4052,13 +4052,13 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>0.17408853022926543</v>
+        <v>8.8532054114789024E-2</v>
       </c>
       <c r="D175">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>231</v>
       </c>
@@ -4066,13 +4066,13 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>0.13631174601640847</v>
+        <v>4.15765936734733E-2</v>
       </c>
       <c r="D176">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>232</v>
       </c>
@@ -4080,13 +4080,13 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>0.12942785682431104</v>
+        <v>5.7655332057022252E-2</v>
       </c>
       <c r="D177">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>233</v>
       </c>
@@ -4094,13 +4094,13 @@
         <v>181</v>
       </c>
       <c r="C178">
-        <v>8.6074654277826693E-2</v>
+        <v>4.603441121156189E-2</v>
       </c>
       <c r="D178">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>234</v>
       </c>
@@ -4108,13 +4108,13 @@
         <v>182</v>
       </c>
       <c r="C179">
-        <v>3.6307239134792113E-2</v>
+        <v>1.4676456492154412E-3</v>
       </c>
       <c r="D179">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>235</v>
       </c>
@@ -4122,13 +4122,13 @@
         <v>183</v>
       </c>
       <c r="C180">
-        <v>3.6593207344001309E-2</v>
+        <v>1.4869567761788022E-3</v>
       </c>
       <c r="D180">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>236</v>
       </c>
@@ -4136,13 +4136,13 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620136002E-2</v>
       </c>
       <c r="D181">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>237</v>
       </c>
@@ -4150,13 +4150,13 @@
         <v>185</v>
       </c>
       <c r="C182">
-        <v>9.5289213060264083E-2</v>
+        <v>3.2477867276385054E-2</v>
       </c>
       <c r="D182">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>238</v>
       </c>
@@ -4164,13 +4164,13 @@
         <v>186</v>
       </c>
       <c r="C183">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620136002E-2</v>
       </c>
       <c r="D183">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>239</v>
       </c>
@@ -4178,13 +4178,13 @@
         <v>187</v>
       </c>
       <c r="C184">
-        <v>6.2398208795274662E-2</v>
+        <v>1.6821637620136002E-2</v>
       </c>
       <c r="D184">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>240</v>
       </c>
@@ -4192,13 +4192,13 @@
         <v>188</v>
       </c>
       <c r="C185">
-        <v>0.34166980154783277</v>
+        <v>0.34730450487864978</v>
       </c>
       <c r="D185">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>245</v>
       </c>
@@ -4206,13 +4206,13 @@
         <v>189</v>
       </c>
       <c r="C186">
-        <v>7.6950432515473635E-2</v>
+        <v>2.5785386895338269E-2</v>
       </c>
       <c r="D186">
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>247</v>
       </c>
@@ -4220,13 +4220,13 @@
         <v>190</v>
       </c>
       <c r="C187">
-        <v>9.2692664641420411E-2</v>
+        <v>1.5838321429756885E-2</v>
       </c>
       <c r="D187">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>248</v>
       </c>
@@ -4234,13 +4234,13 @@
         <v>191</v>
       </c>
       <c r="C188">
-        <v>5.7818230204628195E-2</v>
+        <v>-1.6320094511586235E-2</v>
       </c>
       <c r="D188">
-        <v>-0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>252</v>
       </c>
@@ -4248,13 +4248,13 @@
         <v>192</v>
       </c>
       <c r="C189">
-        <v>-4.4327423917335726E-2</v>
+        <v>-0.13008180923792281</v>
       </c>
       <c r="D189">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>254</v>
       </c>
@@ -4262,13 +4262,13 @@
         <v>193</v>
       </c>
       <c r="C190">
-        <v>5.1124894089799498E-2</v>
+        <v>-8.0276374086006463E-2</v>
       </c>
       <c r="D190">
-        <v>0.28299999999999997</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>255</v>
       </c>
@@ -4276,13 +4276,13 @@
         <v>194</v>
       </c>
       <c r="C191">
-        <v>3.8910305823802588E-2</v>
+        <v>-0.32520452309480702</v>
       </c>
       <c r="D191">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.216</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>256</v>
       </c>
@@ -4290,13 +4290,13 @@
         <v>195</v>
       </c>
       <c r="C192">
-        <v>-7.7502144048185659E-2</v>
+        <v>-0.21866681732878682</v>
       </c>
       <c r="D192">
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.246</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>257</v>
       </c>
@@ -4304,13 +4304,13 @@
         <v>196</v>
       </c>
       <c r="C193">
-        <v>5.6508147072644045E-2</v>
+        <v>-5.6196217543189354E-2</v>
       </c>
       <c r="D193">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>259</v>
       </c>
@@ -4318,13 +4318,13 @@
         <v>197</v>
       </c>
       <c r="C194">
-        <v>7.3937304461433734E-2</v>
+        <v>-3.4754647057375007E-2</v>
       </c>
       <c r="D194">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>260</v>
       </c>
@@ -4332,13 +4332,13 @@
         <v>198</v>
       </c>
       <c r="C195">
-        <v>1.6382806619092211E-2</v>
+        <v>-0.10855093612967671</v>
       </c>
       <c r="D195">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.159</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>261</v>
       </c>
@@ -4346,13 +4346,13 @@
         <v>199</v>
       </c>
       <c r="C196">
-        <v>7.8196269226357071E-2</v>
+        <v>-3.5867397156676931E-2</v>
       </c>
       <c r="D196">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>263</v>
       </c>
@@ -4360,13 +4360,13 @@
         <v>200</v>
       </c>
       <c r="C197">
-        <v>0.28725320359615841</v>
+        <v>0.10888688306594006</v>
       </c>
       <c r="D197">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>264</v>
       </c>
@@ -4374,13 +4374,13 @@
         <v>201</v>
       </c>
       <c r="C198">
-        <v>-5.8558469816360134E-2</v>
+        <v>-0.43474288846863757</v>
       </c>
       <c r="D198">
-        <v>-7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>265</v>
       </c>
@@ -4388,13 +4388,13 @@
         <v>202</v>
       </c>
       <c r="C199">
-        <v>6.2297031541793564E-2</v>
+        <v>-4.2165302985542684E-2</v>
       </c>
       <c r="D199">
-        <v>-0.39700000000000002</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.185</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>266</v>
       </c>
@@ -4402,13 +4402,13 @@
         <v>203</v>
       </c>
       <c r="C200">
-        <v>2.4669782202616085E-2</v>
+        <v>-7.9872025704529365E-2</v>
       </c>
       <c r="D200">
-        <v>0.307</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>267</v>
       </c>
@@ -4416,13 +4416,13 @@
         <v>204</v>
       </c>
       <c r="C201">
-        <v>3.8220058246444547E-2</v>
+        <v>-6.0377521607338495E-2</v>
       </c>
       <c r="D201">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.216</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>268</v>
       </c>
@@ -4430,13 +4430,13 @@
         <v>205</v>
       </c>
       <c r="C202">
-        <v>7.4633995988438145E-2</v>
+        <v>-3.4407100586801256E-2</v>
       </c>
       <c r="D202">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>269</v>
       </c>
@@ -4444,13 +4444,13 @@
         <v>206</v>
       </c>
       <c r="C203">
-        <v>2.3757762312787211E-2</v>
+        <v>-8.3598332794923833E-2</v>
       </c>
       <c r="D203">
-        <v>0.40699999999999997</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.218</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>272</v>
       </c>
@@ -4458,13 +4458,13 @@
         <v>207</v>
       </c>
       <c r="C204">
-        <v>5.8215963662050375E-2</v>
+        <v>-2.4851772627047256E-2</v>
       </c>
       <c r="D204">
-        <v>-0.216</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>277</v>
       </c>
@@ -4472,13 +4472,13 @@
         <v>208</v>
       </c>
       <c r="C205">
-        <v>8.0419509151917187E-2</v>
+        <v>-7.8186337604991857E-2</v>
       </c>
       <c r="D205">
-        <v>0.26500000000000001</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>306</v>
       </c>
@@ -4486,13 +4486,13 @@
         <v>209</v>
       </c>
       <c r="C206">
-        <v>0.26310978104375909</v>
+        <v>0.24814584074652807</v>
       </c>
       <c r="D206">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>307</v>
       </c>
@@ -4500,13 +4500,13 @@
         <v>210</v>
       </c>
       <c r="C207">
-        <v>9.1114883218999659E-2</v>
+        <v>-2.8334726198404389E-5</v>
       </c>
       <c r="D207">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>308</v>
       </c>
@@ -4514,13 +4514,13 @@
         <v>211</v>
       </c>
       <c r="C208">
-        <v>0.11963902587072031</v>
+        <v>2.1212339897490756E-2</v>
       </c>
       <c r="D208">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>309</v>
       </c>
@@ -4528,13 +4528,13 @@
         <v>212</v>
       </c>
       <c r="C209">
-        <v>9.3392055623637851E-2</v>
+        <v>-3.4591558877772981E-2</v>
       </c>
       <c r="D209">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>321</v>
       </c>
@@ -4542,13 +4542,13 @@
         <v>213</v>
       </c>
       <c r="C210">
-        <v>0.14280784403314681</v>
+        <v>-1.6475444028276026E-2</v>
       </c>
       <c r="D210">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>322</v>
       </c>
@@ -4556,13 +4556,13 @@
         <v>214</v>
       </c>
       <c r="C211">
-        <v>0.14280784403314681</v>
+        <v>-1.6475444028276026E-2</v>
       </c>
       <c r="D211">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>323</v>
       </c>
@@ -4570,13 +4570,13 @@
         <v>215</v>
       </c>
       <c r="C212">
-        <v>0.13204246649610393</v>
+        <v>-2.3222728627425929E-2</v>
       </c>
       <c r="D212">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.436</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -4584,13 +4584,13 @@
         <v>217</v>
       </c>
       <c r="C213">
-        <v>0.15497360217130993</v>
+        <v>2.6783602627681521E-2</v>
       </c>
       <c r="D213">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>218</v>
       </c>
@@ -4598,13 +4598,13 @@
         <v>219</v>
       </c>
       <c r="C214">
-        <v>2.2562552147502978E-2</v>
+        <v>-8.7338344487175486E-3</v>
       </c>
       <c r="D214">
-        <v>0.23400000000000001</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -4612,13 +4612,13 @@
         <v>221</v>
       </c>
       <c r="C215">
-        <v>0.1380966678277637</v>
+        <v>0.10554265529847683</v>
       </c>
       <c r="D215">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -4626,13 +4626,13 @@
         <v>223</v>
       </c>
       <c r="C216">
-        <v>-0.15390983433096778</v>
+        <v>-7.7618363939584406E-2</v>
       </c>
       <c r="D216">
-        <v>-9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>224</v>
       </c>
@@ -4640,13 +4640,13 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>-1.1942450006567367E-2</v>
+        <v>-0.19644635378964259</v>
       </c>
       <c r="D217">
-        <v>-6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -4654,13 +4654,13 @@
         <v>227</v>
       </c>
       <c r="C218">
-        <v>1.4089480845916422E-2</v>
+        <v>-5.4899571844250587E-2</v>
       </c>
       <c r="D218">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.497</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>228</v>
       </c>
@@ -4668,13 +4668,13 @@
         <v>229</v>
       </c>
       <c r="C219">
-        <v>-1.3456924854686709E-2</v>
+        <v>5.0777909821955701E-2</v>
       </c>
       <c r="D219">
-        <v>-0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>230</v>
       </c>
@@ -4682,13 +4682,13 @@
         <v>231</v>
       </c>
       <c r="C220">
-        <v>0.14141188580153452</v>
+        <v>1.3157302258454018E-3</v>
       </c>
       <c r="D220">
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>232</v>
       </c>
@@ -4696,13 +4696,13 @@
         <v>233</v>
       </c>
       <c r="C221">
-        <v>-6.411154983008624E-2</v>
+        <v>-5.8479119859621669E-2</v>
       </c>
       <c r="D221">
-        <v>-0.307</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -4710,13 +4710,13 @@
         <v>235</v>
       </c>
       <c r="C222">
-        <v>8.8642888476593962E-2</v>
+        <v>0.14950849980528799</v>
       </c>
       <c r="D222">
-        <v>-0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>236</v>
       </c>
@@ -4724,13 +4724,13 @@
         <v>237</v>
       </c>
       <c r="C223">
-        <v>-0.55368255701662372</v>
+        <v>-0.60308098930527498</v>
       </c>
       <c r="D223">
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -4738,13 +4738,13 @@
         <v>239</v>
       </c>
       <c r="C224">
-        <v>-9.0025535665908749E-2</v>
+        <v>-0.12499868070261355</v>
       </c>
       <c r="D224">
-        <v>-0.29099999999999998</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.214</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -4752,13 +4752,13 @@
         <v>241</v>
       </c>
       <c r="C225">
-        <v>9.7232940475905971E-2</v>
+        <v>9.0337489561876996E-2</v>
       </c>
       <c r="D225">
-        <v>0.18099999999999999</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -4766,13 +4766,13 @@
         <v>243</v>
       </c>
       <c r="C226">
-        <v>5.8892633345210235E-2</v>
+        <v>0</v>
       </c>
       <c r="D226">
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>244</v>
       </c>
@@ -4780,13 +4780,13 @@
         <v>245</v>
       </c>
       <c r="C227">
-        <v>0.17356919114810296</v>
+        <v>0.11238223145438499</v>
       </c>
       <c r="D227">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>246</v>
       </c>
@@ -4794,13 +4794,13 @@
         <v>247</v>
       </c>
       <c r="C228">
-        <v>0.20050811287991105</v>
+        <v>-0.1203204578501935</v>
       </c>
       <c r="D228">
-        <v>-0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>248</v>
       </c>
@@ -4808,13 +4808,13 @@
         <v>249</v>
       </c>
       <c r="C229">
-        <v>0.3299768000041583</v>
+        <v>0.33930060885122265</v>
       </c>
       <c r="D229">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>250</v>
       </c>
@@ -4822,13 +4822,13 @@
         <v>251</v>
       </c>
       <c r="C230">
-        <v>9.5182941103222354E-2</v>
+        <v>-2.6313749059209916E-2</v>
       </c>
       <c r="D230">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -4836,13 +4836,13 @@
         <v>253</v>
       </c>
       <c r="C231">
-        <v>9.4275571661620886E-2</v>
+        <v>3.2530719579370107E-2</v>
       </c>
       <c r="D231">
-        <v>0.41699999999999998</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>254</v>
       </c>
@@ -4850,13 +4850,13 @@
         <v>255</v>
       </c>
       <c r="C232">
-        <v>0.12772520807520263</v>
+        <v>3.9742332187878884E-2</v>
       </c>
       <c r="D232">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -4864,13 +4864,13 @@
         <v>257</v>
       </c>
       <c r="C233">
-        <v>0.37597439446846104</v>
+        <v>0.12542844502837433</v>
       </c>
       <c r="D233">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>258</v>
       </c>
@@ -4878,13 +4878,13 @@
         <v>259</v>
       </c>
       <c r="C234">
-        <v>6.8541395105908093E-2</v>
+        <v>4.4922844357958562E-2</v>
       </c>
       <c r="D234">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>260</v>
       </c>
@@ -4892,13 +4892,13 @@
         <v>261</v>
       </c>
       <c r="C235">
-        <v>0.16749487225808779</v>
+        <v>-0.44953538369829565</v>
       </c>
       <c r="D235">
-        <v>-0.307</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>262</v>
       </c>
@@ -4906,13 +4906,13 @@
         <v>263</v>
       </c>
       <c r="C236">
-        <v>0.10468688481043305</v>
+        <v>-4.6100067253989407E-2</v>
       </c>
       <c r="D236">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -4920,13 +4920,13 @@
         <v>265</v>
       </c>
       <c r="C237">
-        <v>0.12435682292727118</v>
+        <v>-7.626690816282608E-2</v>
       </c>
       <c r="D237">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>266</v>
       </c>
@@ -4934,13 +4934,13 @@
         <v>267</v>
       </c>
       <c r="C238">
-        <v>0.1214943571582225</v>
+        <v>-9.0985192060061889E-3</v>
       </c>
       <c r="D238">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>268</v>
       </c>
@@ -4948,13 +4948,13 @@
         <v>269</v>
       </c>
       <c r="C239">
-        <v>2.9441713334697915E-3</v>
+        <v>-0.10033098271104637</v>
       </c>
       <c r="D239">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>270</v>
       </c>
@@ -4962,13 +4962,13 @@
         <v>271</v>
       </c>
       <c r="C240">
-        <v>4.3186278673747511E-2</v>
+        <v>-9.3639744440392567E-2</v>
       </c>
       <c r="D240">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>272</v>
       </c>
@@ -4976,13 +4976,13 @@
         <v>273</v>
       </c>
       <c r="C241">
-        <v>-6.0009726291735356E-3</v>
+        <v>-0.10776290735630907</v>
       </c>
       <c r="D241">
-        <v>0.48299999999999998</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>274</v>
       </c>
@@ -4990,13 +4990,13 @@
         <v>275</v>
       </c>
       <c r="C242">
-        <v>6.7583173494632859E-2</v>
+        <v>-8.9002414242659117E-2</v>
       </c>
       <c r="D242">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.372</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>276</v>
       </c>
@@ -5004,13 +5004,13 @@
         <v>277</v>
       </c>
       <c r="C243">
-        <v>5.0469527967682205E-2</v>
+        <v>-0.1251662552144916</v>
       </c>
       <c r="D243">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>278</v>
       </c>
@@ -5018,13 +5018,13 @@
         <v>279</v>
       </c>
       <c r="C244">
-        <v>0.12201753726654722</v>
+        <v>-1.6589085966998419E-2</v>
       </c>
       <c r="D244">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>280</v>
       </c>
@@ -5032,13 +5032,13 @@
         <v>281</v>
       </c>
       <c r="C245">
-        <v>0.12869798807475721</v>
+        <v>4.1035811204846754E-3</v>
       </c>
       <c r="D245">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>282</v>
       </c>
@@ -5046,13 +5046,13 @@
         <v>283</v>
       </c>
       <c r="C246">
-        <v>9.3390902609629164E-2</v>
+        <v>-2.8025719182888386E-2</v>
       </c>
       <c r="D246">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>284</v>
       </c>
@@ -5060,13 +5060,13 @@
         <v>285</v>
       </c>
       <c r="C247">
-        <v>9.8958065942108028E-2</v>
+        <v>-4.8966137771233334E-2</v>
       </c>
       <c r="D247">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>286</v>
       </c>
@@ -5074,13 +5074,13 @@
         <v>287</v>
       </c>
       <c r="C248">
-        <v>6.3133276074961164E-2</v>
+        <v>-7.2022895103604795E-2</v>
       </c>
       <c r="D248">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>288</v>
       </c>
@@ -5088,13 +5088,13 @@
         <v>289</v>
       </c>
       <c r="C249">
-        <v>5.5600140681200234E-2</v>
+        <v>-5.0117799316900649E-2</v>
       </c>
       <c r="D249">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>290</v>
       </c>
@@ -5102,13 +5102,13 @@
         <v>291</v>
       </c>
       <c r="C250">
-        <v>1.6797333685716492E-2</v>
+        <v>-6.3739264412792512E-2</v>
       </c>
       <c r="D250">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>292</v>
       </c>
@@ -5116,13 +5116,13 @@
         <v>293</v>
       </c>
       <c r="C251">
-        <v>9.6765300597257395E-2</v>
+        <v>-5.8762496543550695E-2</v>
       </c>
       <c r="D251">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>294</v>
       </c>
@@ -5130,13 +5130,13 @@
         <v>295</v>
       </c>
       <c r="C252">
-        <v>-1.1861406919824421E-2</v>
+        <v>-8.8586695836980422E-2</v>
       </c>
       <c r="D252">
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>296</v>
       </c>
@@ -5144,13 +5144,13 @@
         <v>297</v>
       </c>
       <c r="C253">
-        <v>5.2202803844284176E-2</v>
+        <v>-5.0641973954943735E-2</v>
       </c>
       <c r="D253">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.433</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>298</v>
       </c>
@@ -5158,13 +5158,13 @@
         <v>299</v>
       </c>
       <c r="C254">
-        <v>8.1829742355987722E-2</v>
+        <v>-5.8988569909378029E-2</v>
       </c>
       <c r="D254">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>300</v>
       </c>
@@ -5172,13 +5172,13 @@
         <v>301</v>
       </c>
       <c r="C255">
-        <v>8.2561533143441682E-2</v>
+        <v>-8.2311880118405484E-2</v>
       </c>
       <c r="D255">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>302</v>
       </c>
@@ -5186,13 +5186,13 @@
         <v>303</v>
       </c>
       <c r="C256">
-        <v>4.6410911541770308E-2</v>
+        <v>-6.2112272741799285E-2</v>
       </c>
       <c r="D256">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -5200,13 +5200,13 @@
         <v>305</v>
       </c>
       <c r="C257">
-        <v>4.7692177091640198E-2</v>
+        <v>-3.5706964946088472E-2</v>
       </c>
       <c r="D257">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>306</v>
       </c>
@@ -5214,13 +5214,13 @@
         <v>307</v>
       </c>
       <c r="C258">
-        <v>4.2953283828379436E-2</v>
+        <v>-6.395508353912896E-2</v>
       </c>
       <c r="D258">
-        <v>0.17399999999999999</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.377</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>308</v>
       </c>
@@ -5228,13 +5228,13 @@
         <v>309</v>
       </c>
       <c r="C259">
-        <v>4.2128779887159809E-2</v>
+        <v>-5.1044786957303592E-2</v>
       </c>
       <c r="D259">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>310</v>
       </c>
@@ -5242,13 +5242,13 @@
         <v>311</v>
       </c>
       <c r="C260">
-        <v>7.4871391891016603E-2</v>
+        <v>-2.9132013155198162E-2</v>
       </c>
       <c r="D260">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>312</v>
       </c>
@@ -5256,13 +5256,13 @@
         <v>313</v>
       </c>
       <c r="C261">
-        <v>6.5062562852285899E-2</v>
+        <v>-3.7077702184736751E-2</v>
       </c>
       <c r="D261">
-        <v>0.26300000000000001</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>314</v>
       </c>
@@ -5270,13 +5270,13 @@
         <v>315</v>
       </c>
       <c r="C262">
-        <v>0.21927599420143809</v>
+        <v>0.15944318454417775</v>
       </c>
       <c r="D262">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>316</v>
       </c>
@@ -5284,13 +5284,13 @@
         <v>317</v>
       </c>
       <c r="C263">
-        <v>3.6419563919820527E-2</v>
+        <v>1.7542001586762692E-2</v>
       </c>
       <c r="D263">
-        <v>0.191</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>318</v>
       </c>
@@ -5298,13 +5298,13 @@
         <v>319</v>
       </c>
       <c r="C264">
-        <v>0.18046715525886781</v>
+        <v>3.0028359721879314E-2</v>
       </c>
       <c r="D264">
-        <v>0.45900000000000002</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.434</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>320</v>
       </c>
@@ -5312,13 +5312,13 @@
         <v>321</v>
       </c>
       <c r="C265">
-        <v>2.2223259218911304E-2</v>
+        <v>-5.305164500623117E-2</v>
       </c>
       <c r="D265">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -5326,13 +5326,13 @@
         <v>323</v>
       </c>
       <c r="C266">
-        <v>-4.7962897938903619E-2</v>
+        <v>-0.19130780168303138</v>
       </c>
       <c r="D266">
-        <v>-0.188</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>324</v>
       </c>
@@ -5340,13 +5340,13 @@
         <v>325</v>
       </c>
       <c r="C267">
-        <v>0.30121711067395218</v>
+        <v>4.7334259045741803E-2</v>
       </c>
       <c r="D267">
-        <v>0.114</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>326</v>
       </c>
@@ -5354,13 +5354,13 @@
         <v>327</v>
       </c>
       <c r="C268">
-        <v>-4.8653043498068052E-2</v>
+        <v>-4.2497027852927576E-2</v>
       </c>
       <c r="D268">
-        <v>0.183</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>328</v>
       </c>
@@ -5368,13 +5368,13 @@
         <v>329</v>
       </c>
       <c r="C269">
-        <v>7.7921580313497774E-2</v>
+        <v>8.3564582746644397E-2</v>
       </c>
       <c r="D269">
-        <v>0.28299999999999997</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>330</v>
       </c>
@@ -5382,13 +5382,13 @@
         <v>331</v>
       </c>
       <c r="C270">
-        <v>8.1041094467223865E-2</v>
+        <v>-1.4029095138122411E-2</v>
       </c>
       <c r="D270">
-        <v>0.45100000000000001</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>332</v>
       </c>
@@ -5396,13 +5396,13 @@
         <v>333</v>
       </c>
       <c r="C271">
-        <v>2.9929966402375427E-2</v>
+        <v>-8.6824207842518097E-2</v>
       </c>
       <c r="D271">
-        <v>-0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.187</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>334</v>
       </c>
@@ -5410,13 +5410,13 @@
         <v>335</v>
       </c>
       <c r="C272">
-        <v>0.23981857674973006</v>
+        <v>0.25999720242123475</v>
       </c>
       <c r="D272">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>336</v>
       </c>
@@ -5424,13 +5424,13 @@
         <v>337</v>
       </c>
       <c r="C273">
-        <v>-0.13839540585426163</v>
+        <v>-5.1751496166648897E-2</v>
       </c>
       <c r="D273">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>338</v>
       </c>
@@ -5438,13 +5438,13 @@
         <v>339</v>
       </c>
       <c r="C274">
-        <v>-8.4905041546885912E-2</v>
+        <v>1.0218463866034501E-3</v>
       </c>
       <c r="D274">
-        <v>-0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>340</v>
       </c>
@@ -5452,13 +5452,13 @@
         <v>341</v>
       </c>
       <c r="C275">
-        <v>-0.15473259616734847</v>
+        <v>-0.146006984852424</v>
       </c>
       <c r="D275">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>342</v>
       </c>
@@ -5466,13 +5466,13 @@
         <v>343</v>
       </c>
       <c r="C276">
-        <v>9.0528319254166937E-3</v>
+        <v>-2.7881066795130818E-2</v>
       </c>
       <c r="D276">
-        <v>-0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>344</v>
       </c>
@@ -5480,13 +5480,13 @@
         <v>345</v>
       </c>
       <c r="C277">
-        <v>0.16500829834565744</v>
+        <v>0.102792498094374</v>
       </c>
       <c r="D277">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>346</v>
       </c>
@@ -5494,13 +5494,13 @@
         <v>347</v>
       </c>
       <c r="C278">
-        <v>6.3106446170921371E-2</v>
+        <v>6.8080445662465253E-2</v>
       </c>
       <c r="D278">
-        <v>0.38100000000000001</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>348</v>
       </c>
@@ -5508,13 +5508,13 @@
         <v>349</v>
       </c>
       <c r="C279">
-        <v>0.17528131998143739</v>
+        <v>8.5152561304080193E-2</v>
       </c>
       <c r="D279">
-        <v>0.42899999999999999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>350</v>
       </c>
@@ -5522,13 +5522,13 @@
         <v>351</v>
       </c>
       <c r="C280">
-        <v>-6.9799161903690329E-2</v>
+        <v>3.7797303575110124E-2</v>
       </c>
       <c r="D280">
-        <v>-0.157</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>352</v>
       </c>
@@ -5536,13 +5536,13 @@
         <v>353</v>
       </c>
       <c r="C281">
-        <v>0.17319963206371236</v>
+        <v>6.1241135933516516E-2</v>
       </c>
       <c r="D281">
-        <v>0.38800000000000001</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>354</v>
       </c>
@@ -5550,13 +5550,13 @@
         <v>355</v>
       </c>
       <c r="C282">
-        <v>-9.8297675058216429E-3</v>
+        <v>-6.5905066595443443E-2</v>
       </c>
       <c r="D282">
-        <v>-0.45600000000000002</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>356</v>
       </c>
@@ -5564,13 +5564,13 @@
         <v>357</v>
       </c>
       <c r="C283">
-        <v>0.31861526489520775</v>
+        <v>0.29577766995354038</v>
       </c>
       <c r="D283">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>358</v>
       </c>
@@ -5578,13 +5578,13 @@
         <v>359</v>
       </c>
       <c r="C284">
-        <v>-2.3119962336020126E-2</v>
+        <v>-2.6117283810044811E-2</v>
       </c>
       <c r="D284">
-        <v>-0.218</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>360</v>
       </c>
@@ -5592,13 +5592,13 @@
         <v>361</v>
       </c>
       <c r="C285">
-        <v>0.12406321116797339</v>
+        <v>0.12776530785907564</v>
       </c>
       <c r="D285">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>362</v>
       </c>
@@ -5606,13 +5606,13 @@
         <v>363</v>
       </c>
       <c r="C286">
-        <v>0.1950527453418244</v>
+        <v>0.18210385768845791</v>
       </c>
       <c r="D286">
-        <v>-0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>364</v>
       </c>
@@ -5620,13 +5620,13 @@
         <v>365</v>
       </c>
       <c r="C287">
-        <v>-7.2844596084910174E-2</v>
+        <v>-8.9147682466576249E-3</v>
       </c>
       <c r="D287">
-        <v>-0.154</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>366</v>
       </c>
@@ -5634,13 +5634,13 @@
         <v>367</v>
       </c>
       <c r="C288">
-        <v>0.31523939582029797</v>
+        <v>0.28762760829106782</v>
       </c>
       <c r="D288">
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>368</v>
       </c>
@@ -5648,13 +5648,13 @@
         <v>369</v>
       </c>
       <c r="C289">
-        <v>-0.30100588183457233</v>
+        <v>-0.21898213980906861</v>
       </c>
       <c r="D289">
-        <v>-0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>370</v>
       </c>
@@ -5662,13 +5662,13 @@
         <v>371</v>
       </c>
       <c r="C290">
-        <v>0.38729571042996236</v>
+        <v>-0.60290845303489993</v>
       </c>
       <c r="D290">
-        <v>-0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>372</v>
       </c>
@@ -5676,13 +5676,13 @@
         <v>373</v>
       </c>
       <c r="C291">
-        <v>4.4037159597383614E-2</v>
+        <v>-3.4667285998997141E-2</v>
       </c>
       <c r="D291">
-        <v>-0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>374</v>
       </c>
@@ -5690,13 +5690,13 @@
         <v>375</v>
       </c>
       <c r="C292">
-        <v>0.60176512326122422</v>
+        <v>0.70183650318349289</v>
       </c>
       <c r="D292">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>376</v>
       </c>
@@ -5704,13 +5704,13 @@
         <v>377</v>
       </c>
       <c r="C293">
-        <v>0.28801708119296748</v>
+        <v>0.36226728139944525</v>
       </c>
       <c r="D293">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>378</v>
       </c>
@@ -5718,13 +5718,13 @@
         <v>379</v>
       </c>
       <c r="C294">
-        <v>0.1746322572070689</v>
+        <v>0.12395397064314308</v>
       </c>
       <c r="D294">
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>380</v>
       </c>
@@ -5732,13 +5732,13 @@
         <v>381</v>
       </c>
       <c r="C295">
-        <v>-1.5276146551896908E-2</v>
+        <v>3.2034807042532034E-3</v>
       </c>
       <c r="D295">
-        <v>-0.372</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>382</v>
       </c>
@@ -5746,13 +5746,13 @@
         <v>383</v>
       </c>
       <c r="C296">
-        <v>1.6644065537294327E-2</v>
+        <v>3.7596940203664643E-2</v>
       </c>
       <c r="D296">
-        <v>-0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>384</v>
       </c>
@@ -5760,13 +5760,13 @@
         <v>385</v>
       </c>
       <c r="C297">
-        <v>0.25035706970771715</v>
+        <v>0.18470067715762228</v>
       </c>
       <c r="D297">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>386</v>
       </c>
@@ -5774,13 +5774,13 @@
         <v>387</v>
       </c>
       <c r="C298">
-        <v>3.4572087783166942E-2</v>
+        <v>-0.14350332454214831</v>
       </c>
       <c r="D298">
-        <v>-0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>388</v>
       </c>
@@ -5788,13 +5788,13 @@
         <v>389</v>
       </c>
       <c r="C299">
-        <v>9.5276543306973605E-2</v>
+        <v>-0.14674960527470063</v>
       </c>
       <c r="D299">
-        <v>-0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>390</v>
       </c>
@@ -5802,13 +5802,13 @@
         <v>391</v>
       </c>
       <c r="C300">
-        <v>3.2754053315193918E-2</v>
+        <v>3.5365103621517811E-2</v>
       </c>
       <c r="D300">
-        <v>-0.438</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>392</v>
       </c>
@@ -5816,13 +5816,13 @@
         <v>393</v>
       </c>
       <c r="C301">
-        <v>0.10791644645714622</v>
+        <v>0.10432911610232644</v>
       </c>
       <c r="D301">
-        <v>-0.26500000000000001</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>394</v>
       </c>
@@ -5830,13 +5830,13 @@
         <v>395</v>
       </c>
       <c r="C302">
-        <v>1.6960927594797847E-2</v>
+        <v>1.833014940930823E-2</v>
       </c>
       <c r="D302">
-        <v>-0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>396</v>
       </c>
@@ -5844,13 +5844,13 @@
         <v>397</v>
       </c>
       <c r="C303">
-        <v>-6.1297445728878486E-3</v>
+        <v>3.8873376860622276E-2</v>
       </c>
       <c r="D303">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>398</v>
       </c>
@@ -5858,13 +5858,13 @@
         <v>399</v>
       </c>
       <c r="C304">
-        <v>8.7771341744705841E-2</v>
+        <v>-8.8949494194130369E-2</v>
       </c>
       <c r="D304">
-        <v>-0.16700000000000001</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.214</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>400</v>
       </c>
@@ -5872,13 +5872,13 @@
         <v>401</v>
       </c>
       <c r="C305">
-        <v>6.2260824085667528E-2</v>
+        <v>-1.7088950066841045E-2</v>
       </c>
       <c r="D305">
-        <v>-0.372</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>402</v>
       </c>
@@ -5886,13 +5886,13 @@
         <v>403</v>
       </c>
       <c r="C306">
-        <v>5.5734206465373984E-2</v>
+        <v>0</v>
       </c>
       <c r="D306">
-        <v>0.433</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>404</v>
       </c>
@@ -5900,13 +5900,13 @@
         <v>405</v>
       </c>
       <c r="C307">
-        <v>-1.6112655336167701E-2</v>
+        <v>0</v>
       </c>
       <c r="D307">
-        <v>-0.46400000000000002</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>406</v>
       </c>
@@ -5914,10 +5914,10 @@
         <v>407</v>
       </c>
       <c r="C308">
-        <v>0.13835781991743934</v>
+        <v>0.20413428211956022</v>
       </c>
       <c r="D308">
-        <v>0.23599999999999999</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/TIDEs/Ace24hrs.xlsx
+++ b/data/TIDEs/Ace24hrs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvd5nq\Documents\Cardiotoxicity\data\TIDEs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C20B7A0-A587-42FD-857F-60B159C75EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EC5C6E-F8E5-43F9-BF1B-5B26CF91AA26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="7290" xr2:uid="{45CF6267-3A05-41D7-A4D2-C56203A6EEB4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="7296" xr2:uid="{45CF6267-3A05-41D7-A4D2-C56203A6EEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1606,9 +1606,9 @@
       <selection sqref="A1:D308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>-5.0735432412348812E-2</v>
+        <v>-0.10110706581767134</v>
       </c>
       <c r="D1">
-        <v>-0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1630,13 +1630,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>4.4151437231373075E-2</v>
+        <v>2.4824990342149585E-2</v>
       </c>
       <c r="D2">
-        <v>0.39800000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1644,13 +1644,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>-6.6257304554249871E-2</v>
+        <v>-0.26306704772926115</v>
       </c>
       <c r="D3">
-        <v>-0.41499999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1658,13 +1658,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-2.553174541194515E-2</v>
+        <v>-0.14937558019239244</v>
       </c>
       <c r="D4">
-        <v>-0.432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>262</v>
       </c>
@@ -1672,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-5.6251944287816054E-2</v>
+        <v>-0.13263786745230544</v>
       </c>
       <c r="D5">
-        <v>-0.14799999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>310</v>
       </c>
@@ -1686,13 +1686,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1.3643073202583665E-2</v>
+        <v>-1.0569825023779423E-2</v>
       </c>
       <c r="D6">
-        <v>-0.29199999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1700,13 +1700,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-2.1035596697382884E-2</v>
+        <v>-0.13929178353514274</v>
       </c>
       <c r="D7">
-        <v>0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1714,13 +1714,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.4722379208719449E-2</v>
+        <v>-2.1276349262282614E-3</v>
       </c>
       <c r="D8">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1728,13 +1728,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2.3230873360616165E-2</v>
+        <v>-0.13155335111652369</v>
       </c>
       <c r="D9">
-        <v>0.186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1742,13 +1742,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>-2.0434579648886231E-2</v>
+        <v>-0.13531201829128151</v>
       </c>
       <c r="D10">
-        <v>0.372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1756,13 +1756,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>-9.9734727998932252E-3</v>
+        <v>-0.1111553693221085</v>
       </c>
       <c r="D11">
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1770,13 +1770,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>-1.7011636586076923E-2</v>
+        <v>-7.7935334972673784E-2</v>
       </c>
       <c r="D12">
-        <v>-0.246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1784,13 +1784,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>1.461757843133964E-2</v>
+        <v>7.5884697922487906E-2</v>
       </c>
       <c r="D13">
-        <v>-0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1798,13 +1798,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1.461757843133964E-2</v>
+        <v>7.5884697922487906E-2</v>
       </c>
       <c r="D14">
-        <v>-0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1812,13 +1812,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>-1.7011636586076923E-2</v>
+        <v>-7.7935334972673784E-2</v>
       </c>
       <c r="D15">
-        <v>-0.249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1826,13 +1826,13 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>1.1618071714784687E-2</v>
+        <v>-5.8830782907249433E-2</v>
       </c>
       <c r="D16">
-        <v>0.17899999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -1840,13 +1840,13 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.3791876697343787E-3</v>
+        <v>-6.8128954582010362E-2</v>
       </c>
       <c r="D17">
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1854,13 +1854,13 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>1.0594797064953117E-2</v>
+        <v>-5.6199566646334506E-2</v>
       </c>
       <c r="D18">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1868,13 +1868,13 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>-1.6741548540843726E-2</v>
+        <v>-6.4331402578353722E-2</v>
       </c>
       <c r="D19">
-        <v>0.46500000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1882,13 +1882,13 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>1.7843258528845534E-2</v>
+        <v>-5.4030208640988918E-2</v>
       </c>
       <c r="D20">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1896,13 +1896,13 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>-1.4110869771212738E-2</v>
+        <v>-6.1693933310286088E-2</v>
       </c>
       <c r="D21">
-        <v>0.45500000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1910,13 +1910,13 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>7.2221415939454697E-3</v>
+        <v>-5.4266473779866903E-2</v>
       </c>
       <c r="D22">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1924,13 +1924,13 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>2.6083537328096242E-2</v>
+        <v>-1.2367061100156737E-2</v>
       </c>
       <c r="D23">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1938,13 +1938,13 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>-5.8656572066000785E-2</v>
+        <v>-0.14322939413115227</v>
       </c>
       <c r="D24">
-        <v>-0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1952,13 +1952,13 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>-0.22279276977217638</v>
+        <v>-0.22996916868094472</v>
       </c>
       <c r="D25">
-        <v>-0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1966,13 +1966,13 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>7.5010045670201517E-2</v>
+        <v>-3.8316851664266939E-2</v>
       </c>
       <c r="D26">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -1980,13 +1980,13 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>-3.932717870888789E-2</v>
+        <v>-0.10017144241993678</v>
       </c>
       <c r="D27">
-        <v>0.44400000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1994,13 +1994,13 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>-9.3684479181264019E-2</v>
+        <v>-0.1638443688967241</v>
       </c>
       <c r="D28">
-        <v>-0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2008,13 +2008,13 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>-0.15496788846943968</v>
+        <v>-0.28276801681928698</v>
       </c>
       <c r="D29">
-        <v>-0.18099999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2022,13 +2022,13 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2.3123362950790627E-3</v>
+        <v>-0.12730850763922821</v>
       </c>
       <c r="D30">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2036,13 +2036,13 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>7.1519147678991224E-3</v>
+        <v>-0.14418835576854938</v>
       </c>
       <c r="D31">
-        <v>0.30299999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33</v>
       </c>
@@ -2050,13 +2050,13 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>-1.3388984637404799E-2</v>
+        <v>-7.986081654598276E-2</v>
       </c>
       <c r="D32">
-        <v>0.45300000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2064,13 +2064,13 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>4.2608641810320822E-3</v>
+        <v>-8.1267445588080897E-2</v>
       </c>
       <c r="D33">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2078,13 +2078,13 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.7948480740667536E-3</v>
+        <v>-7.248258336261873E-2</v>
       </c>
       <c r="D34">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2092,13 +2092,13 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>1.2268049488094571E-2</v>
+        <v>-5.1566832228701495E-2</v>
       </c>
       <c r="D35">
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>37</v>
       </c>
@@ -2106,13 +2106,13 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>1.0172287889978147E-2</v>
+        <v>-4.7659013846679275E-2</v>
       </c>
       <c r="D36">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2120,13 +2120,13 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.2081527398564907E-2</v>
+        <v>-5.735451790100711E-2</v>
       </c>
       <c r="D37">
-        <v>0.22700000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2134,13 +2134,13 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>2.5578767317375829E-2</v>
+        <v>-3.8144046370710713E-2</v>
       </c>
       <c r="D38">
-        <v>0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>40</v>
       </c>
@@ -2148,13 +2148,13 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>1.2905485797952468E-2</v>
+        <v>-7.3900202453368147E-2</v>
       </c>
       <c r="D39">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2162,13 +2162,13 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>-7.0064144053639102E-2</v>
+        <v>-0.11751446867487625</v>
       </c>
       <c r="D40">
-        <v>-0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>42</v>
       </c>
@@ -2176,13 +2176,13 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>-5.9173016720035646E-3</v>
+        <v>-8.8606489316687381E-2</v>
       </c>
       <c r="D41">
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>44</v>
       </c>
@@ -2190,13 +2190,13 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>-2.0673212661873417E-2</v>
+        <v>-0.16449837861197428</v>
       </c>
       <c r="D42">
-        <v>0.499</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>45</v>
       </c>
@@ -2204,13 +2204,13 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>-3.0897312959983773E-2</v>
+        <v>-0.13100771470811465</v>
       </c>
       <c r="D43">
-        <v>0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>46</v>
       </c>
@@ -2218,13 +2218,13 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.5398461100600934E-2</v>
+        <v>-0.16093005563117324</v>
       </c>
       <c r="D44">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>47</v>
       </c>
@@ -2232,13 +2232,13 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>-3.9801074247220465E-2</v>
+        <v>-0.17508928896385853</v>
       </c>
       <c r="D45">
-        <v>-0.153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>48</v>
       </c>
@@ -2246,13 +2246,13 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>-2.6911788810555594E-2</v>
+        <v>-0.17216956181297133</v>
       </c>
       <c r="D46">
-        <v>-0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>49</v>
       </c>
@@ -2260,13 +2260,13 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>2.0861804743740903E-2</v>
+        <v>-4.6818536416654004E-2</v>
       </c>
       <c r="D47">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2274,13 +2274,13 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>-4.2807748129721622E-2</v>
+        <v>-0.14377170975154344</v>
       </c>
       <c r="D48">
-        <v>-0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>70</v>
       </c>
@@ -2288,13 +2288,13 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>-6.9145200902071702E-3</v>
+        <v>-0.19146533142790886</v>
       </c>
       <c r="D49">
-        <v>0.42399999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>73</v>
       </c>
@@ -2302,13 +2302,13 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>-5.4442356408379945E-2</v>
+        <v>-3.1530318264174774E-2</v>
       </c>
       <c r="D50">
-        <v>-0.20599999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>75</v>
       </c>
@@ -2316,13 +2316,13 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>-7.8558878827807033E-3</v>
+        <v>-0.11698053338871159</v>
       </c>
       <c r="D51">
-        <v>-0.495</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>76</v>
       </c>
@@ -2330,13 +2330,13 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>6.9641841008716314E-3</v>
+        <v>-4.2245361773054893E-2</v>
       </c>
       <c r="D52">
-        <v>0.36899999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>103</v>
       </c>
@@ -2344,13 +2344,13 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>-3.0776399297772268E-2</v>
+        <v>-1.7885677969866509E-2</v>
       </c>
       <c r="D53">
-        <v>-0.41699999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>104</v>
       </c>
@@ -2358,13 +2358,13 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0.34325438130379232</v>
+        <v>0.23014567526949878</v>
       </c>
       <c r="D54">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>105</v>
       </c>
@@ -2372,13 +2372,13 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0.34503530490443557</v>
+        <v>0.23247007610421566</v>
       </c>
       <c r="D55">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>106</v>
       </c>
@@ -2386,13 +2386,13 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>0.3793074970916015</v>
+        <v>0.27893300313860875</v>
       </c>
       <c r="D56">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>107</v>
       </c>
@@ -2400,13 +2400,13 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>0.34763037136672481</v>
+        <v>0.23103188176710998</v>
       </c>
       <c r="D57">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>108</v>
       </c>
@@ -2414,13 +2414,13 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>0.36954919017508492</v>
+        <v>0.21603727988778393</v>
       </c>
       <c r="D58">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>109</v>
       </c>
@@ -2428,13 +2428,13 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0.43253246024469488</v>
+        <v>0.29513061397326917</v>
       </c>
       <c r="D59">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>110</v>
       </c>
@@ -2442,13 +2442,13 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>0.44073281372800005</v>
+        <v>0.30304027067264883</v>
       </c>
       <c r="D60">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>111</v>
       </c>
@@ -2456,13 +2456,13 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>0.43361772412827987</v>
+        <v>0.29532463363559269</v>
       </c>
       <c r="D61">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>112</v>
       </c>
@@ -2470,13 +2470,13 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>1.557303109853792E-2</v>
+        <v>-5.1490823079581659E-2</v>
       </c>
       <c r="D62">
-        <v>0.24199999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>113</v>
       </c>
@@ -2484,13 +2484,13 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>-2.7164693539414786E-3</v>
+        <v>-7.8224917566614469E-2</v>
       </c>
       <c r="D63">
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>114</v>
       </c>
@@ -2498,13 +2498,13 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>-2.7757537978872424E-4</v>
+        <v>-6.97477903334634E-2</v>
       </c>
       <c r="D64">
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.437</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>115</v>
       </c>
@@ -2512,13 +2512,13 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>9.0932038341631303E-3</v>
+        <v>-6.6299429372222482E-2</v>
       </c>
       <c r="D65">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>116</v>
       </c>
@@ -2526,13 +2526,13 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.62777773640752E-2</v>
+        <v>-8.6816243826641395E-2</v>
       </c>
       <c r="D66">
-        <v>0.27800000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>117</v>
       </c>
@@ -2540,13 +2540,13 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>6.866196338639885E-2</v>
+        <v>1.0179774849587096E-2</v>
       </c>
       <c r="D67">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>121</v>
       </c>
@@ -2554,13 +2554,13 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.8418137877545321E-3</v>
+        <v>-0.14450436535737277</v>
       </c>
       <c r="D68">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>122</v>
       </c>
@@ -2568,13 +2568,13 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>0.11875446229665028</v>
+        <v>0.1569681979224308</v>
       </c>
       <c r="D69">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>123</v>
       </c>
@@ -2582,13 +2582,13 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>9.3825553608700735E-2</v>
+        <v>0.10772773045660962</v>
       </c>
       <c r="D70">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>124</v>
       </c>
@@ -2596,13 +2596,13 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>0.14854162323569078</v>
+        <v>0.16938165100930885</v>
       </c>
       <c r="D71">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>125</v>
       </c>
@@ -2610,13 +2610,13 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.14516567725306145</v>
+        <v>0.17639334592961833</v>
       </c>
       <c r="D72">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>126</v>
       </c>
@@ -2624,13 +2624,13 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0.14516567725306145</v>
+        <v>0.17639334592961833</v>
       </c>
       <c r="D73">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>127</v>
       </c>
@@ -2638,13 +2638,13 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>0.14683424825597022</v>
+        <v>0.17842085565294727</v>
       </c>
       <c r="D74">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>128</v>
       </c>
@@ -2652,13 +2652,13 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0.10700236829993076</v>
+        <v>0.11100174337153265</v>
       </c>
       <c r="D75">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>129</v>
       </c>
@@ -2666,13 +2666,13 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>0.14116441461941057</v>
+        <v>0.18915841808638342</v>
       </c>
       <c r="D76">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>130</v>
       </c>
@@ -2680,13 +2680,13 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>0.15191147989170342</v>
+        <v>0.20422509978091616</v>
       </c>
       <c r="D77">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>131</v>
       </c>
@@ -2694,13 +2694,13 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>0.15391031515343637</v>
+        <v>0.20691227214645452</v>
       </c>
       <c r="D78">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>132</v>
       </c>
@@ -2708,13 +2708,13 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>0.12036847357399828</v>
+        <v>0.14671101199812378</v>
       </c>
       <c r="D79">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>133</v>
       </c>
@@ -2722,13 +2722,13 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>0.13135503961230435</v>
+        <v>0.16260578618014601</v>
       </c>
       <c r="D80">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>134</v>
       </c>
@@ -2736,13 +2736,13 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>0.13135503961230435</v>
+        <v>0.16260578618014601</v>
       </c>
       <c r="D81">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>135</v>
       </c>
@@ -2750,13 +2750,13 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0.19993986542517952</v>
+        <v>0.21819108361527662</v>
       </c>
       <c r="D82">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>136</v>
       </c>
@@ -2764,13 +2764,13 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>0.19109612809086346</v>
+        <v>0.21614356545179803</v>
       </c>
       <c r="D83">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>137</v>
       </c>
@@ -2778,13 +2778,13 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>0.18873691663295156</v>
+        <v>0.21347512637214619</v>
       </c>
       <c r="D84">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>138</v>
       </c>
@@ -2792,13 +2792,13 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0.15898880982424171</v>
+        <v>0.17014490732594648</v>
       </c>
       <c r="D85">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>139</v>
       </c>
@@ -2806,13 +2806,13 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>0.18873691663295156</v>
+        <v>0.21347512637214619</v>
       </c>
       <c r="D86">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>140</v>
       </c>
@@ -2820,13 +2820,13 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0.19109612809086346</v>
+        <v>0.21614356545179803</v>
       </c>
       <c r="D87">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>141</v>
       </c>
@@ -2834,13 +2834,13 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>0.18873691663295156</v>
+        <v>0.21347512637214619</v>
       </c>
       <c r="D88">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>142</v>
       </c>
@@ -2848,13 +2848,13 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>0.16940791076434006</v>
+        <v>0.16406462831665791</v>
       </c>
       <c r="D89">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>143</v>
       </c>
@@ -2862,13 +2862,13 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>0.22474043503424979</v>
+        <v>0.21311720635894385</v>
       </c>
       <c r="D90">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>144</v>
       </c>
@@ -2876,13 +2876,13 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>0.22209642991619979</v>
+        <v>0.22185456222537805</v>
       </c>
       <c r="D91">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>145</v>
       </c>
@@ -2890,13 +2890,13 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>0.22474043503424979</v>
+        <v>0.22449568796615638</v>
       </c>
       <c r="D92">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>146</v>
       </c>
@@ -2904,13 +2904,13 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0.22474043503424979</v>
+        <v>0.22449568796615638</v>
       </c>
       <c r="D93">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>147</v>
       </c>
@@ -2918,13 +2918,13 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>0.22209642991619979</v>
+        <v>0.22185456222537805</v>
       </c>
       <c r="D94">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>148</v>
       </c>
@@ -2932,13 +2932,13 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>0.21951391328926723</v>
+        <v>0.21927485801345506</v>
       </c>
       <c r="D95">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>149</v>
       </c>
@@ -2946,13 +2946,13 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>0.20250875908877816</v>
+        <v>0.174404333313779</v>
       </c>
       <c r="D96">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>150</v>
       </c>
@@ -2960,13 +2960,13 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>0.25826095216649303</v>
+        <v>0.22377009065706413</v>
       </c>
       <c r="D97">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>151</v>
       </c>
@@ -2974,13 +2974,13 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>0.25532616861914653</v>
+        <v>0.23208852661557303</v>
       </c>
       <c r="D98">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>152</v>
       </c>
@@ -2988,13 +2988,13 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>0.25532616861914653</v>
+        <v>0.23208852661557303</v>
       </c>
       <c r="D99">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>153</v>
       </c>
@@ -3002,13 +3002,13 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>0.23273127277630856</v>
+        <v>0.19067556693349907</v>
       </c>
       <c r="D100">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>154</v>
       </c>
@@ -3016,13 +3016,13 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>0.28325227319666096</v>
+        <v>0.22863207000193339</v>
       </c>
       <c r="D101">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>155</v>
       </c>
@@ -3030,13 +3030,13 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>0.28020654982895493</v>
+        <v>0.23645099887294327</v>
       </c>
       <c r="D102">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>156</v>
       </c>
@@ -3044,13 +3044,13 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>0.30885120239271585</v>
+        <v>0.23541982284574134</v>
       </c>
       <c r="D103">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>157</v>
       </c>
@@ -3058,13 +3058,13 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>0.30885120239271585</v>
+        <v>0.24537599425205228</v>
       </c>
       <c r="D104">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>159</v>
       </c>
@@ -3072,13 +3072,13 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>3.7412678687138989E-2</v>
+        <v>0.12692351980857988</v>
       </c>
       <c r="D105">
-        <v>-0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>160</v>
       </c>
@@ -3086,13 +3086,13 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>9.3947724612667954E-2</v>
+        <v>2.4323590219730441E-2</v>
       </c>
       <c r="D106">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>161</v>
       </c>
@@ -3100,13 +3100,13 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>9.2299518917708864E-2</v>
+        <v>2.3896860566752717E-2</v>
       </c>
       <c r="D107">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>162</v>
       </c>
@@ -3114,13 +3114,13 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>0.14752631456528861</v>
+        <v>4.8804560088636616E-2</v>
       </c>
       <c r="D108">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>163</v>
       </c>
@@ -3128,13 +3128,13 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>0.19440758077383175</v>
+        <v>7.0225408723929503E-2</v>
       </c>
       <c r="D109">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>164</v>
       </c>
@@ -3142,13 +3142,13 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>0.17498800862122824</v>
+        <v>2.7401251167703016E-2</v>
       </c>
       <c r="D110">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>165</v>
       </c>
@@ -3156,13 +3156,13 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>0.14510785039208718</v>
+        <v>4.8004485333085191E-2</v>
       </c>
       <c r="D111">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>166</v>
       </c>
@@ -3170,13 +3170,13 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>7.133751633877318E-2</v>
+        <v>2.6194635621248172E-2</v>
       </c>
       <c r="D112">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>167</v>
       </c>
@@ -3184,13 +3184,13 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>0.15261342886064339</v>
+        <v>5.0487475953762032E-2</v>
       </c>
       <c r="D113">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>168</v>
       </c>
@@ -3198,13 +3198,13 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>0.15002676057486977</v>
+        <v>4.9631756022342335E-2</v>
       </c>
       <c r="D114">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>169</v>
       </c>
@@ -3212,13 +3212,13 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>0.19440758077383175</v>
+        <v>7.0225408723929503E-2</v>
       </c>
       <c r="D115">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>171</v>
       </c>
@@ -3226,13 +3226,13 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>3.7412678687138989E-2</v>
+        <v>0.12692351980857988</v>
       </c>
       <c r="D116">
-        <v>-0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>172</v>
       </c>
@@ -3240,13 +3240,13 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>1.8141651273763219E-2</v>
+        <v>-0.10149043031291262</v>
       </c>
       <c r="D117">
-        <v>0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>173</v>
       </c>
@@ -3254,13 +3254,13 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>1.7958402270997934E-2</v>
+        <v>-0.10046527445116603</v>
       </c>
       <c r="D118">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>174</v>
       </c>
@@ -3268,13 +3268,13 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>5.2631256082712852E-2</v>
+        <v>-7.599501318035369E-2</v>
       </c>
       <c r="D119">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>175</v>
       </c>
@@ -3282,13 +3282,13 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>8.9306165446837074E-2</v>
+        <v>-5.0679977091497713E-2</v>
       </c>
       <c r="D120">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>176</v>
       </c>
@@ -3296,13 +3296,13 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>8.451787184947758E-2</v>
+        <v>-5.8352252748894225E-2</v>
       </c>
       <c r="D121">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>177</v>
       </c>
@@ -3310,13 +3310,13 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>5.2631256082712852E-2</v>
+        <v>-7.599501318035369E-2</v>
       </c>
       <c r="D122">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>178</v>
       </c>
@@ -3324,13 +3324,13 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>-1.620862385474835E-2</v>
+        <v>-0.11739054350653863</v>
       </c>
       <c r="D123">
-        <v>0.41399999999999998</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>179</v>
       </c>
@@ -3338,13 +3338,13 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>2.0714010398048672E-2</v>
+        <v>-9.6827768485938145E-2</v>
       </c>
       <c r="D124">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>180</v>
       </c>
@@ -3352,13 +3352,13 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>5.2631256082712852E-2</v>
+        <v>-8.2155976643648473E-2</v>
       </c>
       <c r="D125">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>181</v>
       </c>
@@ -3366,13 +3366,13 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>3.5411085547355295E-2</v>
+        <v>-4.2672469297448924E-2</v>
       </c>
       <c r="D126">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>182</v>
       </c>
@@ -3380,13 +3380,13 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>1.2195687274598598E-2</v>
+        <v>-5.1172811133393462E-2</v>
       </c>
       <c r="D127">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>183</v>
       </c>
@@ -3394,13 +3394,13 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>2.9552537772210893E-2</v>
+        <v>-4.4645607272174599E-2</v>
       </c>
       <c r="D128">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>184</v>
       </c>
@@ -3408,13 +3408,13 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>4.603441121156189E-2</v>
+        <v>-3.9706586935499458E-2</v>
       </c>
       <c r="D129">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>185</v>
       </c>
@@ -3422,13 +3422,13 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>3.3277887622815826E-2</v>
+        <v>-5.1477216115738439E-2</v>
       </c>
       <c r="D130">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>186</v>
       </c>
@@ -3436,13 +3436,13 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>3.3277887622815826E-2</v>
+        <v>-5.1477216115738439E-2</v>
       </c>
       <c r="D131">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>187</v>
       </c>
@@ -3450,13 +3450,13 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>3.2117031077833876E-2</v>
+        <v>-5.0031366815747755E-2</v>
       </c>
       <c r="D132">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>188</v>
       </c>
@@ -3464,13 +3464,13 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>3.9742332187878884E-2</v>
+        <v>-3.8843373861259453E-2</v>
       </c>
       <c r="D133">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>189</v>
       </c>
@@ -3478,13 +3478,13 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>1.1478293905504562E-2</v>
+        <v>-5.3879407135924852E-2</v>
       </c>
       <c r="D134">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>190</v>
       </c>
@@ -3492,13 +3492,13 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>1.1478293905504564E-2</v>
+        <v>-5.3879407135924852E-2</v>
       </c>
       <c r="D135">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>191</v>
       </c>
@@ -3506,13 +3506,13 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>2.8629020966829302E-2</v>
+        <v>-4.1431247467436802E-2</v>
       </c>
       <c r="D136">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>192</v>
       </c>
@@ -3520,13 +3520,13 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>4.4549430204737311E-2</v>
+        <v>-3.6547861341469333E-2</v>
       </c>
       <c r="D137">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>193</v>
       </c>
@@ -3534,13 +3534,13 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>4.4549430204737311E-2</v>
+        <v>-3.6547861341469333E-2</v>
       </c>
       <c r="D138">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>194</v>
       </c>
@@ -3548,13 +3548,13 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>2.9083449871064686E-2</v>
+        <v>-4.2537873747460146E-2</v>
       </c>
       <c r="D139">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>195</v>
       </c>
@@ -3562,13 +3562,13 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>1.6821637620136002E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D140">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>196</v>
       </c>
@@ -3576,13 +3576,13 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>1.0962415527729079E-2</v>
+        <v>-5.4356812008636922E-2</v>
       </c>
       <c r="D141">
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>197</v>
       </c>
@@ -3590,13 +3590,13 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>4.5279748732683825E-2</v>
+        <v>-3.9055659280819138E-2</v>
       </c>
       <c r="D142">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>198</v>
       </c>
@@ -3604,13 +3604,13 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>4.603441121156189E-2</v>
+        <v>-3.9706586935499458E-2</v>
       </c>
       <c r="D143">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>199</v>
       </c>
@@ -3618,13 +3618,13 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>4.603441121156189E-2</v>
+        <v>-3.9706586935499458E-2</v>
       </c>
       <c r="D144">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>200</v>
       </c>
@@ -3632,13 +3632,13 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>1.6821637620136002E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D145">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>201</v>
       </c>
@@ -3646,13 +3646,13 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>3.9319634979531337E-2</v>
+        <v>-3.4332647280494469E-2</v>
       </c>
       <c r="D146">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>202</v>
       </c>
@@ -3660,13 +3660,13 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>2.1837734033950434E-2</v>
+        <v>-3.2143208378651728E-2</v>
       </c>
       <c r="D147">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>203</v>
       </c>
@@ -3674,13 +3674,13 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>1.0490913784600946E-2</v>
+        <v>-5.4793149795524319E-2</v>
       </c>
       <c r="D148">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>204</v>
       </c>
@@ -3688,13 +3688,13 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>2.9754356935885969E-2</v>
+        <v>-3.3631091068157197E-2</v>
       </c>
       <c r="D149">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>205</v>
       </c>
@@ -3702,13 +3702,13 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>1.6821637620136002E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D150">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>206</v>
       </c>
@@ -3716,13 +3716,13 @@
         <v>154</v>
       </c>
       <c r="C151">
-        <v>1.6536525118099797E-2</v>
+        <v>-4.1212359709529016E-2</v>
       </c>
       <c r="D151">
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>207</v>
       </c>
@@ -3730,13 +3730,13 @@
         <v>155</v>
       </c>
       <c r="C152">
-        <v>1.6821637620135995E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D152">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>208</v>
       </c>
@@ -3744,13 +3744,13 @@
         <v>156</v>
       </c>
       <c r="C153">
-        <v>1.4779517075782815E-2</v>
+        <v>-3.7470481153998814E-2</v>
       </c>
       <c r="D153">
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>209</v>
       </c>
@@ -3758,13 +3758,13 @@
         <v>157</v>
       </c>
       <c r="C154">
-        <v>3.7787701149159983E-2</v>
+        <v>-3.7857797064032916E-2</v>
       </c>
       <c r="D154">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>210</v>
       </c>
@@ -3772,13 +3772,13 @@
         <v>158</v>
       </c>
       <c r="C155">
-        <v>2.812398121337167E-2</v>
+        <v>-3.5322629396135917E-2</v>
       </c>
       <c r="D155">
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>211</v>
       </c>
@@ -3786,13 +3786,13 @@
         <v>159</v>
       </c>
       <c r="C156">
-        <v>4.6814655469384972E-2</v>
+        <v>-3.9859550903698131E-2</v>
       </c>
       <c r="D156">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>212</v>
       </c>
@@ -3800,13 +3800,13 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>-1.342408589205835E-2</v>
+        <v>-4.860414329464318E-2</v>
       </c>
       <c r="D157">
-        <v>0.38200000000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>213</v>
       </c>
@@ -3814,13 +3814,13 @@
         <v>161</v>
       </c>
       <c r="C158">
-        <v>4.0783587464141291E-2</v>
+        <v>-6.1900950383037237E-2</v>
       </c>
       <c r="D158">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>214</v>
       </c>
@@ -3828,13 +3828,13 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>-3.7083119948895092E-2</v>
+        <v>-0.14678927867380132</v>
       </c>
       <c r="D159">
-        <v>0.36899999999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>215</v>
       </c>
@@ -3842,13 +3842,13 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>3.3938720102555289E-2</v>
+        <v>-7.3871546815234432E-2</v>
       </c>
       <c r="D160">
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>216</v>
       </c>
@@ -3856,13 +3856,13 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>-4.2052030535405224E-2</v>
+        <v>-0.15645520242376135</v>
       </c>
       <c r="D161">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>217</v>
       </c>
@@ -3870,13 +3870,13 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>4.5279748732683825E-2</v>
+        <v>-3.9055659280819138E-2</v>
       </c>
       <c r="D162">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>218</v>
       </c>
@@ -3884,13 +3884,13 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>1.6821637620135995E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D163">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>219</v>
       </c>
@@ -3898,13 +3898,13 @@
         <v>167</v>
       </c>
       <c r="C164">
-        <v>1.6536525118099794E-2</v>
+        <v>-4.1212359709529016E-2</v>
       </c>
       <c r="D164">
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>220</v>
       </c>
@@ -3912,13 +3912,13 @@
         <v>168</v>
       </c>
       <c r="C165">
-        <v>1.6821637620135995E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D165">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>221</v>
       </c>
@@ -3926,13 +3926,13 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>1.6821637620135995E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D166">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>222</v>
       </c>
@@ -3940,13 +3940,13 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>1.4488296793537048E-3</v>
+        <v>-4.5144485748401006E-2</v>
       </c>
       <c r="D167">
-        <v>0.26400000000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>223</v>
       </c>
@@ -3954,13 +3954,13 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>1.4676456492154412E-3</v>
+        <v>-4.5730777771107511E-2</v>
       </c>
       <c r="D168">
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>224</v>
       </c>
@@ -3968,13 +3968,13 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>1.6821637620135995E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D169">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>225</v>
       </c>
@@ -3982,13 +3982,13 @@
         <v>173</v>
       </c>
       <c r="C170">
-        <v>1.6821637620136002E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D170">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>226</v>
       </c>
@@ -3996,13 +3996,13 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>1.6821637620136002E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D171">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>227</v>
       </c>
@@ -4010,13 +4010,13 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>1.6821637620136002E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D172">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>228</v>
       </c>
@@ -4024,13 +4024,13 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>2.4643420243862842E-2</v>
+        <v>-2.7709303823593632E-2</v>
       </c>
       <c r="D173">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>229</v>
       </c>
@@ -4038,13 +4038,13 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>8.7248980866748593E-2</v>
+        <v>-2.5546146983473839E-2</v>
       </c>
       <c r="D174">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>230</v>
       </c>
@@ -4052,13 +4052,13 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>8.8532054114789024E-2</v>
+        <v>-2.5921825615583746E-2</v>
       </c>
       <c r="D175">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>231</v>
       </c>
@@ -4066,13 +4066,13 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>4.15765936734733E-2</v>
+        <v>-4.5672670835621952E-2</v>
       </c>
       <c r="D176">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>232</v>
       </c>
@@ -4080,13 +4080,13 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>5.7655332057022252E-2</v>
+        <v>-2.5343127011951412E-2</v>
       </c>
       <c r="D177">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>233</v>
       </c>
@@ -4094,13 +4094,13 @@
         <v>181</v>
       </c>
       <c r="C178">
-        <v>4.603441121156189E-2</v>
+        <v>-3.9706586935499458E-2</v>
       </c>
       <c r="D178">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>234</v>
       </c>
@@ -4108,13 +4108,13 @@
         <v>182</v>
       </c>
       <c r="C179">
-        <v>1.4676456492154412E-3</v>
+        <v>-4.5730777771107511E-2</v>
       </c>
       <c r="D179">
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>235</v>
       </c>
@@ -4122,13 +4122,13 @@
         <v>183</v>
       </c>
       <c r="C180">
-        <v>1.4869567761788022E-3</v>
+        <v>-4.93361336452421E-2</v>
       </c>
       <c r="D180">
-        <v>0.247</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>236</v>
       </c>
@@ -4136,13 +4136,13 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>1.6821637620136002E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D181">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>237</v>
       </c>
@@ -4150,13 +4150,13 @@
         <v>185</v>
       </c>
       <c r="C182">
-        <v>3.2477867276385054E-2</v>
+        <v>1.4067845358537119E-2</v>
       </c>
       <c r="D182">
-        <v>0.17299999999999999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>238</v>
       </c>
@@ -4164,13 +4164,13 @@
         <v>186</v>
       </c>
       <c r="C183">
-        <v>1.6821637620136002E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D183">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>239</v>
       </c>
@@ -4178,13 +4178,13 @@
         <v>187</v>
       </c>
       <c r="C184">
-        <v>1.6821637620136002E-2</v>
+        <v>-4.1922917635555383E-2</v>
       </c>
       <c r="D184">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>240</v>
       </c>
@@ -4192,13 +4192,13 @@
         <v>188</v>
       </c>
       <c r="C185">
-        <v>0.34730450487864978</v>
+        <v>0.24052378515591852</v>
       </c>
       <c r="D185">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>245</v>
       </c>
@@ -4206,13 +4206,13 @@
         <v>189</v>
       </c>
       <c r="C186">
-        <v>2.5785386895338269E-2</v>
+        <v>-6.3813666122055399E-2</v>
       </c>
       <c r="D186">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>247</v>
       </c>
@@ -4220,13 +4220,13 @@
         <v>190</v>
       </c>
       <c r="C187">
-        <v>1.5838321429756885E-2</v>
+        <v>-8.3575791691479245E-2</v>
       </c>
       <c r="D187">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>248</v>
       </c>
@@ -4234,13 +4234,13 @@
         <v>191</v>
       </c>
       <c r="C188">
-        <v>-1.6320094511586235E-2</v>
+        <v>-0.12211305742002306</v>
       </c>
       <c r="D188">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>252</v>
       </c>
@@ -4248,13 +4248,13 @@
         <v>192</v>
       </c>
       <c r="C189">
-        <v>-0.13008180923792281</v>
+        <v>-0.35787309305119985</v>
       </c>
       <c r="D189">
-        <v>0.376</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.253</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>254</v>
       </c>
@@ -4262,13 +4262,13 @@
         <v>193</v>
       </c>
       <c r="C190">
-        <v>-8.0276374086006463E-2</v>
+        <v>-0.24579899742226247</v>
       </c>
       <c r="D190">
-        <v>-0.375</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.156</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>255</v>
       </c>
@@ -4276,13 +4276,13 @@
         <v>194</v>
       </c>
       <c r="C191">
-        <v>-0.32520452309480702</v>
+        <v>-0.43615733048619998</v>
       </c>
       <c r="D191">
-        <v>-0.216</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>256</v>
       </c>
@@ -4290,13 +4290,13 @@
         <v>195</v>
       </c>
       <c r="C192">
-        <v>-0.21866681732878682</v>
+        <v>-0.2789273648909808</v>
       </c>
       <c r="D192">
-        <v>-0.246</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.309</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>257</v>
       </c>
@@ -4304,13 +4304,13 @@
         <v>196</v>
       </c>
       <c r="C193">
-        <v>-5.6196217543189354E-2</v>
+        <v>-0.16003040146557948</v>
       </c>
       <c r="D193">
-        <v>-0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>259</v>
       </c>
@@ -4318,13 +4318,13 @@
         <v>197</v>
       </c>
       <c r="C194">
-        <v>-3.4754647057375007E-2</v>
+        <v>-9.6662906788019018E-2</v>
       </c>
       <c r="D194">
-        <v>-0.38100000000000001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.183</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>260</v>
       </c>
@@ -4332,13 +4332,13 @@
         <v>198</v>
       </c>
       <c r="C195">
-        <v>-0.10855093612967671</v>
+        <v>-0.10749726143340535</v>
       </c>
       <c r="D195">
-        <v>-0.159</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>261</v>
       </c>
@@ -4346,13 +4346,13 @@
         <v>199</v>
       </c>
       <c r="C196">
-        <v>-3.5867397156676931E-2</v>
+        <v>-0.10339156285872159</v>
       </c>
       <c r="D196">
-        <v>-0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>263</v>
       </c>
@@ -4360,13 +4360,13 @@
         <v>200</v>
       </c>
       <c r="C197">
-        <v>0.10888688306594006</v>
+        <v>-8.7553357577931146E-2</v>
       </c>
       <c r="D197">
-        <v>0.39600000000000002</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>264</v>
       </c>
@@ -4374,13 +4374,13 @@
         <v>201</v>
       </c>
       <c r="C198">
-        <v>-0.43474288846863757</v>
+        <v>-0.25831192673793285</v>
       </c>
       <c r="D198">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>265</v>
       </c>
@@ -4388,13 +4388,13 @@
         <v>202</v>
       </c>
       <c r="C199">
-        <v>-4.2165302985542684E-2</v>
+        <v>-9.76388159781061E-2</v>
       </c>
       <c r="D199">
-        <v>-0.185</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>266</v>
       </c>
@@ -4402,13 +4402,13 @@
         <v>203</v>
       </c>
       <c r="C200">
-        <v>-7.9872025704529365E-2</v>
+        <v>-0.16868088861098987</v>
       </c>
       <c r="D200">
-        <v>-0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>267</v>
       </c>
@@ -4416,13 +4416,13 @@
         <v>204</v>
       </c>
       <c r="C201">
-        <v>-6.0377521607338495E-2</v>
+        <v>-0.13494939618110158</v>
       </c>
       <c r="D201">
-        <v>-0.216</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>268</v>
       </c>
@@ -4430,13 +4430,13 @@
         <v>205</v>
       </c>
       <c r="C202">
-        <v>-3.4407100586801256E-2</v>
+        <v>-0.1010798857168215</v>
       </c>
       <c r="D202">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>269</v>
       </c>
@@ -4444,13 +4444,13 @@
         <v>206</v>
       </c>
       <c r="C203">
-        <v>-8.3598332794923833E-2</v>
+        <v>-0.20713894461064969</v>
       </c>
       <c r="D203">
-        <v>-0.218</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>272</v>
       </c>
@@ -4458,13 +4458,13 @@
         <v>207</v>
       </c>
       <c r="C204">
-        <v>-2.4851772627047256E-2</v>
+        <v>4.4916633992038817E-2</v>
       </c>
       <c r="D204">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>277</v>
       </c>
@@ -4472,13 +4472,13 @@
         <v>208</v>
       </c>
       <c r="C205">
-        <v>-7.8186337604991857E-2</v>
+        <v>-0.23666661963112856</v>
       </c>
       <c r="D205">
-        <v>-0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>306</v>
       </c>
@@ -4486,13 +4486,13 @@
         <v>209</v>
       </c>
       <c r="C206">
-        <v>0.24814584074652807</v>
+        <v>0.23206384405273167</v>
       </c>
       <c r="D206">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>307</v>
       </c>
@@ -4500,13 +4500,13 @@
         <v>210</v>
       </c>
       <c r="C207">
-        <v>-2.8334726198404389E-5</v>
+        <v>-6.1166529363333583E-2</v>
       </c>
       <c r="D207">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>308</v>
       </c>
@@ -4514,13 +4514,13 @@
         <v>211</v>
       </c>
       <c r="C208">
-        <v>2.1212339897490756E-2</v>
+        <v>-1.8730834953052078E-4</v>
       </c>
       <c r="D208">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>309</v>
       </c>
@@ -4528,13 +4528,13 @@
         <v>212</v>
       </c>
       <c r="C209">
-        <v>-3.4591558877772981E-2</v>
+        <v>-0.1640137998714013</v>
       </c>
       <c r="D209">
-        <v>0.50600000000000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>321</v>
       </c>
@@ -4542,13 +4542,13 @@
         <v>213</v>
       </c>
       <c r="C210">
-        <v>-1.6475444028276026E-2</v>
+        <v>-9.4383971834329825E-2</v>
       </c>
       <c r="D210">
-        <v>-0.47199999999999998</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>322</v>
       </c>
@@ -4556,13 +4556,13 @@
         <v>214</v>
       </c>
       <c r="C211">
-        <v>-1.6475444028276026E-2</v>
+        <v>-9.4383971834329825E-2</v>
       </c>
       <c r="D211">
-        <v>-0.47199999999999998</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>323</v>
       </c>
@@ -4570,13 +4570,13 @@
         <v>215</v>
       </c>
       <c r="C212">
-        <v>-2.3222728627425929E-2</v>
+        <v>-0.11337358867811091</v>
       </c>
       <c r="D212">
-        <v>-0.436</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.151</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -4584,13 +4584,13 @@
         <v>217</v>
       </c>
       <c r="C213">
-        <v>2.6783602627681521E-2</v>
+        <v>-5.2639891350633308E-2</v>
       </c>
       <c r="D213">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>218</v>
       </c>
@@ -4598,13 +4598,13 @@
         <v>219</v>
       </c>
       <c r="C214">
-        <v>-8.7338344487175486E-3</v>
+        <v>-0.15379676300823367</v>
       </c>
       <c r="D214">
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -4612,13 +4612,13 @@
         <v>221</v>
       </c>
       <c r="C215">
-        <v>0.10554265529847683</v>
+        <v>7.4494082876426712E-2</v>
       </c>
       <c r="D215">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -4626,13 +4626,13 @@
         <v>223</v>
       </c>
       <c r="C216">
-        <v>-7.7618363939584406E-2</v>
+        <v>7.1797559222425603E-2</v>
       </c>
       <c r="D216">
-        <v>-0.25600000000000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>224</v>
       </c>
@@ -4640,13 +4640,13 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>-0.19644635378964259</v>
+        <v>-6.964447659805037E-2</v>
       </c>
       <c r="D217">
-        <v>-4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -4654,13 +4654,13 @@
         <v>227</v>
       </c>
       <c r="C218">
-        <v>-5.4899571844250587E-2</v>
+        <v>-0.24341475794749634</v>
       </c>
       <c r="D218">
-        <v>-0.497</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>228</v>
       </c>
@@ -4668,13 +4668,13 @@
         <v>229</v>
       </c>
       <c r="C219">
-        <v>5.0777909821955701E-2</v>
+        <v>-0.12804951642366091</v>
       </c>
       <c r="D219">
-        <v>0.30299999999999999</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.311</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>230</v>
       </c>
@@ -4682,13 +4682,13 @@
         <v>231</v>
       </c>
       <c r="C220">
-        <v>1.3157302258454018E-3</v>
+        <v>-6.1740872974470395E-2</v>
       </c>
       <c r="D220">
-        <v>0.44800000000000001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>232</v>
       </c>
@@ -4696,13 +4696,13 @@
         <v>233</v>
       </c>
       <c r="C221">
-        <v>-5.8479119859621669E-2</v>
+        <v>-6.7592348995804005E-2</v>
       </c>
       <c r="D221">
-        <v>-0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.371</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -4710,13 +4710,13 @@
         <v>235</v>
       </c>
       <c r="C222">
-        <v>0.14950849980528799</v>
+        <v>-0.6728648347306283</v>
       </c>
       <c r="D222">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>236</v>
       </c>
@@ -4724,13 +4724,13 @@
         <v>237</v>
       </c>
       <c r="C223">
-        <v>-0.60308098930527498</v>
+        <v>-0.80754041153658174</v>
       </c>
       <c r="D223">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -4738,13 +4738,13 @@
         <v>239</v>
       </c>
       <c r="C224">
-        <v>-0.12499868070261355</v>
+        <v>-0.10932537350303662</v>
       </c>
       <c r="D224">
-        <v>-0.214</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.373</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -4752,13 +4752,13 @@
         <v>241</v>
       </c>
       <c r="C225">
-        <v>9.0337489561876996E-2</v>
+        <v>7.9949173475546337E-2</v>
       </c>
       <c r="D225">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -4769,10 +4769,10 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>244</v>
       </c>
@@ -4780,13 +4780,13 @@
         <v>245</v>
       </c>
       <c r="C227">
-        <v>0.11238223145438499</v>
+        <v>0.1500303895088716</v>
       </c>
       <c r="D227">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>246</v>
       </c>
@@ -4794,13 +4794,13 @@
         <v>247</v>
       </c>
       <c r="C228">
-        <v>-0.1203204578501935</v>
+        <v>-0.79754305105782786</v>
       </c>
       <c r="D228">
-        <v>-0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>248</v>
       </c>
@@ -4808,13 +4808,13 @@
         <v>249</v>
       </c>
       <c r="C229">
-        <v>0.33930060885122265</v>
+        <v>0.22183938139225032</v>
       </c>
       <c r="D229">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>250</v>
       </c>
@@ -4822,13 +4822,13 @@
         <v>251</v>
       </c>
       <c r="C230">
-        <v>-2.6313749059209916E-2</v>
+        <v>-0.19547541924538356</v>
       </c>
       <c r="D230">
-        <v>-0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -4836,13 +4836,13 @@
         <v>253</v>
       </c>
       <c r="C231">
-        <v>3.2530719579370107E-2</v>
+        <v>-9.2177350106795494E-2</v>
       </c>
       <c r="D231">
-        <v>0.371</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>254</v>
       </c>
@@ -4850,13 +4850,13 @@
         <v>255</v>
       </c>
       <c r="C232">
-        <v>3.9742332187878884E-2</v>
+        <v>-3.8843373861259453E-2</v>
       </c>
       <c r="D232">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -4864,13 +4864,13 @@
         <v>257</v>
       </c>
       <c r="C233">
-        <v>0.12542844502837433</v>
+        <v>0.25922988533571567</v>
       </c>
       <c r="D233">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>258</v>
       </c>
@@ -4878,13 +4878,13 @@
         <v>259</v>
       </c>
       <c r="C234">
-        <v>4.4922844357958562E-2</v>
+        <v>0.10574241217430927</v>
       </c>
       <c r="D234">
-        <v>0.307</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>260</v>
       </c>
@@ -4892,13 +4892,13 @@
         <v>261</v>
       </c>
       <c r="C235">
-        <v>-0.44953538369829565</v>
+        <v>-0.59906673470598604</v>
       </c>
       <c r="D235">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>262</v>
       </c>
@@ -4906,13 +4906,13 @@
         <v>263</v>
       </c>
       <c r="C236">
-        <v>-4.6100067253989407E-2</v>
+        <v>-0.16492156601326372</v>
       </c>
       <c r="D236">
-        <v>0.40899999999999997</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -4920,13 +4920,13 @@
         <v>265</v>
       </c>
       <c r="C237">
-        <v>-7.626690816282608E-2</v>
+        <v>-0.25289551207841177</v>
       </c>
       <c r="D237">
-        <v>-0.30499999999999999</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>266</v>
       </c>
@@ -4934,13 +4934,13 @@
         <v>267</v>
       </c>
       <c r="C238">
-        <v>-9.0985192060061889E-3</v>
+        <v>-0.10264436129276633</v>
       </c>
       <c r="D238">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>268</v>
       </c>
@@ -4948,13 +4948,13 @@
         <v>269</v>
       </c>
       <c r="C239">
-        <v>-0.10033098271104637</v>
+        <v>-8.9180231971411103E-2</v>
       </c>
       <c r="D239">
-        <v>-0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>270</v>
       </c>
@@ -4962,13 +4962,13 @@
         <v>271</v>
       </c>
       <c r="C240">
-        <v>-9.3639744440392567E-2</v>
+        <v>-0.18386107061485421</v>
       </c>
       <c r="D240">
-        <v>-0.29899999999999999</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>272</v>
       </c>
@@ -4976,13 +4976,13 @@
         <v>273</v>
       </c>
       <c r="C241">
-        <v>-0.10776290735630907</v>
+        <v>-7.1895085003124193E-2</v>
       </c>
       <c r="D241">
-        <v>-0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>274</v>
       </c>
@@ -4990,13 +4990,13 @@
         <v>275</v>
       </c>
       <c r="C242">
-        <v>-8.9002414242659117E-2</v>
+        <v>-0.32789756970057882</v>
       </c>
       <c r="D242">
-        <v>-0.372</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.3E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>276</v>
       </c>
@@ -5004,13 +5004,13 @@
         <v>277</v>
       </c>
       <c r="C243">
-        <v>-0.1251662552144916</v>
+        <v>-0.19800841281548567</v>
       </c>
       <c r="D243">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>278</v>
       </c>
@@ -5018,13 +5018,13 @@
         <v>279</v>
       </c>
       <c r="C244">
-        <v>-1.6589085966998419E-2</v>
+        <v>-0.1451240523079817</v>
       </c>
       <c r="D244">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.248</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>280</v>
       </c>
@@ -5032,13 +5032,13 @@
         <v>281</v>
       </c>
       <c r="C245">
-        <v>4.1035811204846754E-3</v>
+        <v>-0.16350041749835975</v>
       </c>
       <c r="D245">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>282</v>
       </c>
@@ -5046,13 +5046,13 @@
         <v>283</v>
       </c>
       <c r="C246">
-        <v>-2.8025719182888386E-2</v>
+        <v>-0.13599715237847917</v>
       </c>
       <c r="D246">
-        <v>0.26400000000000001</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>284</v>
       </c>
@@ -5060,13 +5060,13 @@
         <v>285</v>
       </c>
       <c r="C247">
-        <v>-4.8966137771233334E-2</v>
+        <v>-0.19463657090802111</v>
       </c>
       <c r="D247">
-        <v>0.47199999999999998</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>286</v>
       </c>
@@ -5074,13 +5074,13 @@
         <v>287</v>
       </c>
       <c r="C248">
-        <v>-7.2022895103604795E-2</v>
+        <v>-0.30403322274396677</v>
       </c>
       <c r="D248">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>288</v>
       </c>
@@ -5088,13 +5088,13 @@
         <v>289</v>
       </c>
       <c r="C249">
-        <v>-5.0117799316900649E-2</v>
+        <v>-0.1645614972398442</v>
       </c>
       <c r="D249">
-        <v>-0.41899999999999998</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>290</v>
       </c>
@@ -5102,13 +5102,13 @@
         <v>291</v>
       </c>
       <c r="C250">
-        <v>-6.3739264412792512E-2</v>
+        <v>-0.25417503647116191</v>
       </c>
       <c r="D250">
-        <v>0.502</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>292</v>
       </c>
@@ -5116,13 +5116,13 @@
         <v>293</v>
       </c>
       <c r="C251">
-        <v>-5.8762496543550695E-2</v>
+        <v>-0.25698215706694177</v>
       </c>
       <c r="D251">
-        <v>-0.48599999999999999</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>294</v>
       </c>
@@ -5130,13 +5130,13 @@
         <v>295</v>
       </c>
       <c r="C252">
-        <v>-8.8586695836980422E-2</v>
+        <v>-0.21074958519614753</v>
       </c>
       <c r="D252">
-        <v>-0.36099999999999999</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>296</v>
       </c>
@@ -5144,13 +5144,13 @@
         <v>297</v>
       </c>
       <c r="C253">
-        <v>-5.0641973954943735E-2</v>
+        <v>-0.2252855438125044</v>
       </c>
       <c r="D253">
-        <v>-0.433</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>298</v>
       </c>
@@ -5158,13 +5158,13 @@
         <v>299</v>
       </c>
       <c r="C254">
-        <v>-5.8988569909378029E-2</v>
+        <v>-0.17672985457921928</v>
       </c>
       <c r="D254">
-        <v>-0.47599999999999998</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>300</v>
       </c>
@@ -5172,13 +5172,13 @@
         <v>301</v>
       </c>
       <c r="C255">
-        <v>-8.2311880118405484E-2</v>
+        <v>-0.32918472604271493</v>
       </c>
       <c r="D255">
-        <v>-0.39800000000000002</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.1E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>302</v>
       </c>
@@ -5186,13 +5186,13 @@
         <v>303</v>
       </c>
       <c r="C256">
-        <v>-6.2112272741799285E-2</v>
+        <v>-0.21739623147782045</v>
       </c>
       <c r="D256">
-        <v>-0.41299999999999998</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -5200,13 +5200,13 @@
         <v>305</v>
       </c>
       <c r="C257">
-        <v>-3.5706964946088472E-2</v>
+        <v>-0.20054096567552118</v>
       </c>
       <c r="D257">
-        <v>0.376</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>306</v>
       </c>
@@ -5214,13 +5214,13 @@
         <v>307</v>
       </c>
       <c r="C258">
-        <v>-6.395508353912896E-2</v>
+        <v>-0.23215791247765752</v>
       </c>
       <c r="D258">
-        <v>-0.377</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>308</v>
       </c>
@@ -5228,13 +5228,13 @@
         <v>309</v>
       </c>
       <c r="C259">
-        <v>-5.1044786957303592E-2</v>
+        <v>-0.24767450662977991</v>
       </c>
       <c r="D259">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>310</v>
       </c>
@@ -5242,13 +5242,13 @@
         <v>311</v>
       </c>
       <c r="C260">
-        <v>-2.9132013155198162E-2</v>
+        <v>-9.410613317128913E-2</v>
       </c>
       <c r="D260">
-        <v>-0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>312</v>
       </c>
@@ -5256,13 +5256,13 @@
         <v>313</v>
       </c>
       <c r="C261">
-        <v>-3.7077702184736751E-2</v>
+        <v>-6.4393152140601762E-2</v>
       </c>
       <c r="D261">
-        <v>-0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>314</v>
       </c>
@@ -5270,13 +5270,13 @@
         <v>315</v>
       </c>
       <c r="C262">
-        <v>0.15944318454417775</v>
+        <v>0.26862525098534007</v>
       </c>
       <c r="D262">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>316</v>
       </c>
@@ -5284,13 +5284,13 @@
         <v>317</v>
       </c>
       <c r="C263">
-        <v>1.7542001586762692E-2</v>
+        <v>5.63910283786608E-2</v>
       </c>
       <c r="D263">
-        <v>0.16400000000000001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>318</v>
       </c>
@@ -5298,13 +5298,13 @@
         <v>319</v>
       </c>
       <c r="C264">
-        <v>3.0028359721879314E-2</v>
+        <v>-3.922678134340369E-2</v>
       </c>
       <c r="D264">
-        <v>-0.434</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>320</v>
       </c>
@@ -5312,13 +5312,13 @@
         <v>321</v>
       </c>
       <c r="C265">
-        <v>-5.305164500623117E-2</v>
+        <v>-0.17958961713206306</v>
       </c>
       <c r="D265">
-        <v>0.27800000000000002</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -5326,13 +5326,13 @@
         <v>323</v>
       </c>
       <c r="C266">
-        <v>-0.19130780168303138</v>
+        <v>0.10008851078587502</v>
       </c>
       <c r="D266">
-        <v>-7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>324</v>
       </c>
@@ -5340,13 +5340,13 @@
         <v>325</v>
       </c>
       <c r="C267">
-        <v>4.7334259045741803E-2</v>
+        <v>7.4499759007802202E-2</v>
       </c>
       <c r="D267">
-        <v>0.46100000000000002</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>326</v>
       </c>
@@ -5354,13 +5354,13 @@
         <v>327</v>
       </c>
       <c r="C268">
-        <v>-4.2497027852927576E-2</v>
+        <v>-0.16395633749214528</v>
       </c>
       <c r="D268">
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>328</v>
       </c>
@@ -5368,13 +5368,13 @@
         <v>329</v>
       </c>
       <c r="C269">
-        <v>8.3564582746644397E-2</v>
+        <v>0.13146577065003545</v>
       </c>
       <c r="D269">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>330</v>
       </c>
@@ -5382,13 +5382,13 @@
         <v>331</v>
       </c>
       <c r="C270">
-        <v>-1.4029095138122411E-2</v>
+        <v>0.33887935082693538</v>
       </c>
       <c r="D270">
-        <v>-0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>332</v>
       </c>
@@ -5396,13 +5396,13 @@
         <v>333</v>
       </c>
       <c r="C271">
-        <v>-8.6824207842518097E-2</v>
+        <v>-7.3815709695884552E-2</v>
       </c>
       <c r="D271">
-        <v>-0.187</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>334</v>
       </c>
@@ -5410,13 +5410,13 @@
         <v>335</v>
       </c>
       <c r="C272">
-        <v>0.25999720242123475</v>
+        <v>-3.358262987412635E-2</v>
       </c>
       <c r="D272">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.379</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>336</v>
       </c>
@@ -5424,13 +5424,13 @@
         <v>337</v>
       </c>
       <c r="C273">
-        <v>-5.1751496166648897E-2</v>
+        <v>-0.21477962118213881</v>
       </c>
       <c r="D273">
-        <v>0.28399999999999997</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>338</v>
       </c>
@@ -5438,13 +5438,13 @@
         <v>339</v>
       </c>
       <c r="C274">
-        <v>1.0218463866034501E-3</v>
+        <v>-0.17651686660378044</v>
       </c>
       <c r="D274">
-        <v>0.437</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>340</v>
       </c>
@@ -5452,13 +5452,13 @@
         <v>341</v>
       </c>
       <c r="C275">
-        <v>-0.146006984852424</v>
+        <v>-0.22501118036204301</v>
       </c>
       <c r="D275">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>342</v>
       </c>
@@ -5466,13 +5466,13 @@
         <v>343</v>
       </c>
       <c r="C276">
-        <v>-2.7881066795130818E-2</v>
+        <v>-0.12692529012351839</v>
       </c>
       <c r="D276">
-        <v>-0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>344</v>
       </c>
@@ -5480,13 +5480,13 @@
         <v>345</v>
       </c>
       <c r="C277">
-        <v>0.102792498094374</v>
+        <v>9.6225272930738244E-3</v>
       </c>
       <c r="D277">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>346</v>
       </c>
@@ -5494,13 +5494,13 @@
         <v>347</v>
       </c>
       <c r="C278">
-        <v>6.8080445662465253E-2</v>
+        <v>0.26484203863258132</v>
       </c>
       <c r="D278">
-        <v>0.251</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>348</v>
       </c>
@@ -5508,13 +5508,13 @@
         <v>349</v>
       </c>
       <c r="C279">
-        <v>8.5152561304080193E-2</v>
+        <v>0</v>
       </c>
       <c r="D279">
-        <v>0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>350</v>
       </c>
@@ -5522,13 +5522,13 @@
         <v>351</v>
       </c>
       <c r="C280">
-        <v>3.7797303575110124E-2</v>
+        <v>1.4743623416964824E-3</v>
       </c>
       <c r="D280">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>352</v>
       </c>
@@ -5536,13 +5536,13 @@
         <v>353</v>
       </c>
       <c r="C281">
-        <v>6.1241135933516516E-2</v>
+        <v>1.677387447517819E-2</v>
       </c>
       <c r="D281">
-        <v>0.44700000000000001</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.441</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>354</v>
       </c>
@@ -5550,13 +5550,13 @@
         <v>355</v>
       </c>
       <c r="C282">
-        <v>-6.5905066595443443E-2</v>
+        <v>-0.16564162456111395</v>
       </c>
       <c r="D282">
-        <v>-0.40799999999999997</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>356</v>
       </c>
@@ -5564,13 +5564,13 @@
         <v>357</v>
       </c>
       <c r="C283">
-        <v>0.29577766995354038</v>
+        <v>0.3403911742689526</v>
       </c>
       <c r="D283">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>358</v>
       </c>
@@ -5578,13 +5578,13 @@
         <v>359</v>
       </c>
       <c r="C284">
-        <v>-2.6117283810044811E-2</v>
+        <v>-5.4853862322153134E-2</v>
       </c>
       <c r="D284">
-        <v>-0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>360</v>
       </c>
@@ -5592,13 +5592,13 @@
         <v>361</v>
       </c>
       <c r="C285">
-        <v>0.12776530785907564</v>
+        <v>5.3318330313370542E-2</v>
       </c>
       <c r="D285">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>362</v>
       </c>
@@ -5606,13 +5606,13 @@
         <v>363</v>
       </c>
       <c r="C286">
-        <v>0.18210385768845791</v>
+        <v>0.26671635268250082</v>
       </c>
       <c r="D286">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>364</v>
       </c>
@@ -5620,13 +5620,13 @@
         <v>365</v>
       </c>
       <c r="C287">
-        <v>-8.9147682466576249E-3</v>
+        <v>-0.12340750147276</v>
       </c>
       <c r="D287">
-        <v>0.48599999999999999</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>366</v>
       </c>
@@ -5634,13 +5634,13 @@
         <v>367</v>
       </c>
       <c r="C288">
-        <v>0.28762760829106782</v>
+        <v>0.1909803808201081</v>
       </c>
       <c r="D288">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>368</v>
       </c>
@@ -5648,13 +5648,13 @@
         <v>369</v>
       </c>
       <c r="C289">
-        <v>-0.21898213980906861</v>
+        <v>-9.3642551300125373E-2</v>
       </c>
       <c r="D289">
-        <v>-0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>370</v>
       </c>
@@ -5662,13 +5662,13 @@
         <v>371</v>
       </c>
       <c r="C290">
-        <v>-0.60290845303489993</v>
+        <v>-0.31026785924118416</v>
       </c>
       <c r="D290">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>372</v>
       </c>
@@ -5676,13 +5676,13 @@
         <v>373</v>
       </c>
       <c r="C291">
-        <v>-3.4667285998997141E-2</v>
+        <v>2.6544847003574134E-2</v>
       </c>
       <c r="D291">
-        <v>-0.20599999999999999</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>374</v>
       </c>
@@ -5690,13 +5690,13 @@
         <v>375</v>
       </c>
       <c r="C292">
-        <v>0.70183650318349289</v>
+        <v>0.26956029289473687</v>
       </c>
       <c r="D292">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>376</v>
       </c>
@@ -5704,13 +5704,13 @@
         <v>377</v>
       </c>
       <c r="C293">
-        <v>0.36226728139944525</v>
+        <v>4.2882358535122948E-2</v>
       </c>
       <c r="D293">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>378</v>
       </c>
@@ -5718,13 +5718,13 @@
         <v>379</v>
       </c>
       <c r="C294">
-        <v>0.12395397064314308</v>
+        <v>8.3682754237158642E-3</v>
       </c>
       <c r="D294">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>380</v>
       </c>
@@ -5732,13 +5732,13 @@
         <v>381</v>
       </c>
       <c r="C295">
-        <v>3.2034807042532034E-3</v>
+        <v>-0.16781814075382578</v>
       </c>
       <c r="D295">
-        <v>0.48099999999999998</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>382</v>
       </c>
@@ -5746,13 +5746,13 @@
         <v>383</v>
       </c>
       <c r="C296">
-        <v>3.7596940203664643E-2</v>
+        <v>2.5488826667168642E-2</v>
       </c>
       <c r="D296">
-        <v>0.38600000000000001</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>384</v>
       </c>
@@ -5760,13 +5760,13 @@
         <v>385</v>
       </c>
       <c r="C297">
-        <v>0.18470067715762228</v>
+        <v>-7.1525038264788317E-3</v>
       </c>
       <c r="D297">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>386</v>
       </c>
@@ -5774,13 +5774,13 @@
         <v>387</v>
       </c>
       <c r="C298">
-        <v>-0.14350332454214831</v>
+        <v>-3.9527988867457405E-2</v>
       </c>
       <c r="D298">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>388</v>
       </c>
@@ -5788,13 +5788,13 @@
         <v>389</v>
       </c>
       <c r="C299">
-        <v>-0.14674960527470063</v>
+        <v>2.8465425251594702E-2</v>
       </c>
       <c r="D299">
-        <v>-6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>390</v>
       </c>
@@ -5802,13 +5802,13 @@
         <v>391</v>
       </c>
       <c r="C300">
-        <v>3.5365103621517811E-2</v>
+        <v>-1.2875297080528999E-3</v>
       </c>
       <c r="D300">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>392</v>
       </c>
@@ -5816,13 +5816,13 @@
         <v>393</v>
       </c>
       <c r="C301">
-        <v>0.10432911610232644</v>
+        <v>0.25971572045416769</v>
       </c>
       <c r="D301">
-        <v>0.503</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>394</v>
       </c>
@@ -5830,13 +5830,13 @@
         <v>395</v>
       </c>
       <c r="C302">
-        <v>1.833014940930823E-2</v>
+        <v>1.3531510578583015E-2</v>
       </c>
       <c r="D302">
-        <v>-0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>396</v>
       </c>
@@ -5844,13 +5844,13 @@
         <v>397</v>
       </c>
       <c r="C303">
-        <v>3.8873376860622276E-2</v>
+        <v>-9.7354344425971226E-2</v>
       </c>
       <c r="D303">
-        <v>0.16700000000000001</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>398</v>
       </c>
@@ -5858,13 +5858,13 @@
         <v>399</v>
       </c>
       <c r="C304">
-        <v>-8.8949494194130369E-2</v>
+        <v>-0.27724570722487651</v>
       </c>
       <c r="D304">
-        <v>-0.214</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.108</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>400</v>
       </c>
@@ -5872,13 +5872,13 @@
         <v>401</v>
       </c>
       <c r="C305">
-        <v>-1.7088950066841045E-2</v>
+        <v>3.5308920535511115E-2</v>
       </c>
       <c r="D305">
-        <v>-0.29299999999999998</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>402</v>
       </c>
@@ -5886,13 +5886,13 @@
         <v>403</v>
       </c>
       <c r="C306">
-        <v>0</v>
+        <v>4.9222483765264287E-2</v>
       </c>
       <c r="D306">
-        <v>0.498</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>404</v>
       </c>
@@ -5903,10 +5903,10 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>0.83899999999999997</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>406</v>
       </c>
@@ -5914,10 +5914,10 @@
         <v>407</v>
       </c>
       <c r="C308">
-        <v>0.20413428211956022</v>
+        <v>2.8052331323954002E-2</v>
       </c>
       <c r="D308">
-        <v>9.5000000000000001E-2</v>
+        <v>0.433</v>
       </c>
     </row>
   </sheetData>
